--- a/2_Supplemental_Material/Section_7_Evaluation/Subsection_7.1_Grammar_Adaptation/Metrics_Xcore.xlsx
+++ b/2_Supplemental_Material/Section_7_Evaluation/Subsection_7.1_Grammar_Adaptation/Metrics_Xcore.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Git Repository\GrammarTransformer_data\2_Supplemental_Material\Section_7_Evaluation\Subsection_7.1_Grammar_Adaptation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37BC600-62DD-4F1C-81B9-27A673630E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjGjo6iTipbpA0wV6AGud995+Ylow=="/>
     </ext>
@@ -22,9 +42,6 @@
   </si>
   <si>
     <t>Generated Xtext Grammar</t>
-  </si>
-  <si>
-    <t>Optimized Grammar</t>
   </si>
   <si>
     <t>imitated</t>
@@ -960,36 +977,40 @@
   <si>
     <t>unnecessary rule added</t>
   </si>
+  <si>
+    <t>Transformed Grammar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -999,7 +1020,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1009,7 +1030,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -1023,71 +1050,66 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1277,34 +1299,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="49.57"/>
-    <col customWidth="1" min="2" max="3" width="3.14"/>
-    <col customWidth="1" min="4" max="4" width="55.57"/>
-    <col customWidth="1" min="5" max="6" width="3.0"/>
-    <col customWidth="1" min="7" max="7" width="50.29"/>
-    <col customWidth="1" min="8" max="8" width="2.71"/>
-    <col customWidth="1" min="9" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="11.57"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="1" width="49.54296875" customWidth="1"/>
+    <col min="2" max="3" width="3.08984375" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" customWidth="1"/>
+    <col min="5" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="50.26953125" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,14 +1338,14 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -1342,7 +1364,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1352,11 +1374,11 @@
       <c r="G2" s="9"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7">
-        <f t="shared" ref="I2:J2" si="1">COUNTA(I3:I42)</f>
+        <f t="shared" ref="I2:J2" si="0">COUNTA(I3:I42)</f>
         <v>25</v>
       </c>
       <c r="J2" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2" s="5"/>
@@ -1376,23 +1398,23 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="232" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="5"/>
@@ -1412,23 +1434,23 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="70" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="5"/>
@@ -1448,23 +1470,23 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="70" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5"/>
@@ -1484,23 +1506,23 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="5"/>
@@ -1520,12 +1542,12 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1550,23 +1572,23 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="12" t="s">
-        <v>21</v>
+      <c r="G8" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="13" t="s">
-        <v>8</v>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="5"/>
@@ -1586,23 +1608,23 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="5"/>
@@ -1622,23 +1644,23 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="5"/>
@@ -1658,12 +1680,12 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1688,12 +1710,12 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1718,23 +1740,23 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="174" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="5"/>
@@ -1754,23 +1776,23 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="5"/>
@@ -1790,23 +1812,23 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="336" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
@@ -1826,23 +1848,23 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="261" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="5"/>
@@ -1862,23 +1884,23 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="14" t="s">
-        <v>43</v>
+      <c r="D17" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="5"/>
@@ -1898,12 +1920,12 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1928,12 +1950,12 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1958,23 +1980,23 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="5"/>
@@ -1994,23 +2016,23 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="392" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="5"/>
@@ -2030,23 +2052,23 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:26" ht="364" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="5"/>
@@ -2066,23 +2088,23 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:26" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="5"/>
@@ -2102,12 +2124,12 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -2132,12 +2154,12 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -2162,12 +2184,12 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -2192,12 +2214,12 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -2222,23 +2244,23 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:26" ht="203" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="5"/>
@@ -2258,12 +2280,12 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2288,12 +2310,12 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -2318,12 +2340,12 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2348,12 +2370,12 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -2378,12 +2400,12 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2408,23 +2430,23 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:26" ht="174" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="5"/>
@@ -2444,23 +2466,23 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:26" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="5"/>
@@ -2480,9 +2502,9 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:26" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2490,11 +2512,11 @@
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="5"/>
@@ -2514,9 +2536,9 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2524,11 +2546,11 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="5"/>
@@ -2548,21 +2570,21 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="12" t="s">
-        <v>83</v>
+      <c r="G38" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="5"/>
@@ -2582,9 +2604,9 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2592,11 +2614,11 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="5"/>
@@ -2616,9 +2638,9 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:26" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2626,11 +2648,11 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="5"/>
@@ -2650,9 +2672,9 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:26" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2660,11 +2682,11 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="5"/>
@@ -2684,7 +2706,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:26" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2692,13 +2714,13 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -2716,7 +2738,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2744,7 +2766,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2772,7 +2794,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2800,7 +2822,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2828,7 +2850,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2856,7 +2878,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2884,7 +2906,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2912,7 +2934,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2940,7 +2962,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2968,7 +2990,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2996,7 +3018,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -3024,7 +3046,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -3052,7 +3074,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -3080,7 +3102,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -3108,7 +3130,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -3136,7 +3158,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -3164,7 +3186,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -3192,7 +3214,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -3220,7 +3242,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3248,7 +3270,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -3276,7 +3298,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3304,7 +3326,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3332,7 +3354,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3360,7 +3382,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3388,7 +3410,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3416,7 +3438,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3444,7 +3466,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3472,7 +3494,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3500,7 +3522,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3528,7 +3550,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3556,7 +3578,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3584,7 +3606,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3612,7 +3634,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3640,7 +3662,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3668,7 +3690,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3696,7 +3718,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3724,7 +3746,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3752,7 +3774,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3780,7 +3802,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3808,7 +3830,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3836,7 +3858,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3864,7 +3886,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3892,7 +3914,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3920,7 +3942,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3948,7 +3970,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3976,7 +3998,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4004,7 +4026,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4032,7 +4054,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -4060,7 +4082,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -4088,7 +4110,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -4116,7 +4138,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4144,7 +4166,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4172,7 +4194,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -4200,7 +4222,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -4228,7 +4250,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -4256,7 +4278,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -4284,7 +4306,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -4312,7 +4334,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -4340,7 +4362,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -4368,7 +4390,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -4396,7 +4418,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -4424,7 +4446,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -4452,7 +4474,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -4480,7 +4502,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -4508,7 +4530,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -4536,7 +4558,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4564,7 +4586,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4592,7 +4614,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4620,7 +4642,7 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4648,7 +4670,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4676,7 +4698,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4704,7 +4726,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4732,7 +4754,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4760,7 +4782,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4788,7 +4810,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4816,7 +4838,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4844,7 +4866,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4872,7 +4894,7 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4900,7 +4922,7 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4928,7 +4950,7 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4956,7 +4978,7 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4984,7 +5006,7 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -5012,7 +5034,7 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -5040,7 +5062,7 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -5068,7 +5090,7 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -5096,7 +5118,7 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -5124,7 +5146,7 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -5152,7 +5174,7 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -5180,7 +5202,7 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -5208,7 +5230,7 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -5236,7 +5258,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -5264,7 +5286,7 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -5292,7 +5314,7 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -5320,7 +5342,7 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -5348,7 +5370,7 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -5376,7 +5398,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -5404,7 +5426,7 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -5432,7 +5454,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -5460,7 +5482,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -5488,7 +5510,7 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -5516,7 +5538,7 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -5544,7 +5566,7 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -5572,7 +5594,7 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -5600,7 +5622,7 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -5628,7 +5650,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -5656,7 +5678,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -5684,7 +5706,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -5712,7 +5734,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -5740,7 +5762,7 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -5768,7 +5790,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -5796,7 +5818,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -5824,7 +5846,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -5852,7 +5874,7 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -5880,7 +5902,7 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -5908,7 +5930,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -5936,7 +5958,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -5964,7 +5986,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -5992,7 +6014,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -6020,7 +6042,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -6048,7 +6070,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -6076,7 +6098,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -6104,7 +6126,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -6132,7 +6154,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -6160,7 +6182,7 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -6188,7 +6210,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -6216,7 +6238,7 @@
       <c r="Y167" s="5"/>
       <c r="Z167" s="5"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -6244,7 +6266,7 @@
       <c r="Y168" s="5"/>
       <c r="Z168" s="5"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -6272,7 +6294,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -6300,7 +6322,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -6328,7 +6350,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -6356,7 +6378,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -6384,7 +6406,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -6412,7 +6434,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -6440,7 +6462,7 @@
       <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -6468,7 +6490,7 @@
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -6496,7 +6518,7 @@
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -6524,7 +6546,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -6552,7 +6574,7 @@
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -6580,7 +6602,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -6608,7 +6630,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -6636,7 +6658,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -6664,7 +6686,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -6692,7 +6714,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -6720,7 +6742,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -6748,7 +6770,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -6776,7 +6798,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -6804,7 +6826,7 @@
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -6832,7 +6854,7 @@
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -6860,7 +6882,7 @@
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -6888,7 +6910,7 @@
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -6916,7 +6938,7 @@
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -6944,7 +6966,7 @@
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -6972,7 +6994,7 @@
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -7000,7 +7022,7 @@
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -7028,7 +7050,7 @@
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -7056,7 +7078,7 @@
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -7084,7 +7106,7 @@
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -7112,7 +7134,7 @@
       <c r="Y199" s="5"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -7140,7 +7162,7 @@
       <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -7168,7 +7190,7 @@
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -7196,7 +7218,7 @@
       <c r="Y202" s="5"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -7224,7 +7246,7 @@
       <c r="Y203" s="5"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -7252,7 +7274,7 @@
       <c r="Y204" s="5"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -7280,7 +7302,7 @@
       <c r="Y205" s="5"/>
       <c r="Z205" s="5"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -7308,7 +7330,7 @@
       <c r="Y206" s="5"/>
       <c r="Z206" s="5"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -7336,7 +7358,7 @@
       <c r="Y207" s="5"/>
       <c r="Z207" s="5"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -7364,7 +7386,7 @@
       <c r="Y208" s="5"/>
       <c r="Z208" s="5"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -7392,7 +7414,7 @@
       <c r="Y209" s="5"/>
       <c r="Z209" s="5"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -7420,7 +7442,7 @@
       <c r="Y210" s="5"/>
       <c r="Z210" s="5"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -7448,7 +7470,7 @@
       <c r="Y211" s="5"/>
       <c r="Z211" s="5"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -7476,7 +7498,7 @@
       <c r="Y212" s="5"/>
       <c r="Z212" s="5"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -7504,7 +7526,7 @@
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -7532,7 +7554,7 @@
       <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -7560,7 +7582,7 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -7588,7 +7610,7 @@
       <c r="Y216" s="5"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -7616,7 +7638,7 @@
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -7644,7 +7666,7 @@
       <c r="Y218" s="5"/>
       <c r="Z218" s="5"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -7672,7 +7694,7 @@
       <c r="Y219" s="5"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -7700,7 +7722,7 @@
       <c r="Y220" s="5"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -7728,7 +7750,7 @@
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -7756,7 +7778,7 @@
       <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -7784,7 +7806,7 @@
       <c r="Y223" s="5"/>
       <c r="Z223" s="5"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -7812,7 +7834,7 @@
       <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -7840,7 +7862,7 @@
       <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -7868,7 +7890,7 @@
       <c r="Y226" s="5"/>
       <c r="Z226" s="5"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -7896,7 +7918,7 @@
       <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -7924,7 +7946,7 @@
       <c r="Y228" s="5"/>
       <c r="Z228" s="5"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -7952,7 +7974,7 @@
       <c r="Y229" s="5"/>
       <c r="Z229" s="5"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -7980,7 +8002,7 @@
       <c r="Y230" s="5"/>
       <c r="Z230" s="5"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -8008,7 +8030,7 @@
       <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -8036,7 +8058,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -8064,7 +8086,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -8092,7 +8114,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -8120,7 +8142,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -8148,7 +8170,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -8176,7 +8198,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -8204,7 +8226,7 @@
       <c r="Y238" s="5"/>
       <c r="Z238" s="5"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -8232,7 +8254,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -8260,7 +8282,7 @@
       <c r="Y240" s="5"/>
       <c r="Z240" s="5"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -8288,7 +8310,7 @@
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -8316,7 +8338,7 @@
       <c r="Y242" s="5"/>
       <c r="Z242" s="5"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -8344,7 +8366,7 @@
       <c r="Y243" s="5"/>
       <c r="Z243" s="5"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -8372,7 +8394,7 @@
       <c r="Y244" s="5"/>
       <c r="Z244" s="5"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -8400,7 +8422,7 @@
       <c r="Y245" s="5"/>
       <c r="Z245" s="5"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -8428,7 +8450,7 @@
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -8456,7 +8478,7 @@
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -8484,7 +8506,7 @@
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -8512,7 +8534,7 @@
       <c r="Y249" s="5"/>
       <c r="Z249" s="5"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -8540,7 +8562,7 @@
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -8568,7 +8590,7 @@
       <c r="Y251" s="5"/>
       <c r="Z251" s="5"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -8596,7 +8618,7 @@
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -8624,7 +8646,7 @@
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -8652,7 +8674,7 @@
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -8680,7 +8702,7 @@
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -8708,7 +8730,7 @@
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -8736,7 +8758,7 @@
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -8764,7 +8786,7 @@
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -8792,7 +8814,7 @@
       <c r="Y259" s="5"/>
       <c r="Z259" s="5"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -8820,7 +8842,7 @@
       <c r="Y260" s="5"/>
       <c r="Z260" s="5"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -8848,7 +8870,7 @@
       <c r="Y261" s="5"/>
       <c r="Z261" s="5"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -8876,7 +8898,7 @@
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -8904,7 +8926,7 @@
       <c r="Y263" s="5"/>
       <c r="Z263" s="5"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -8932,7 +8954,7 @@
       <c r="Y264" s="5"/>
       <c r="Z264" s="5"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -8960,7 +8982,7 @@
       <c r="Y265" s="5"/>
       <c r="Z265" s="5"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -8988,7 +9010,7 @@
       <c r="Y266" s="5"/>
       <c r="Z266" s="5"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -9016,7 +9038,7 @@
       <c r="Y267" s="5"/>
       <c r="Z267" s="5"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -9044,7 +9066,7 @@
       <c r="Y268" s="5"/>
       <c r="Z268" s="5"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -9072,7 +9094,7 @@
       <c r="Y269" s="5"/>
       <c r="Z269" s="5"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -9100,7 +9122,7 @@
       <c r="Y270" s="5"/>
       <c r="Z270" s="5"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -9128,7 +9150,7 @@
       <c r="Y271" s="5"/>
       <c r="Z271" s="5"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -9156,7 +9178,7 @@
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -9184,7 +9206,7 @@
       <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -9212,7 +9234,7 @@
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -9240,7 +9262,7 @@
       <c r="Y275" s="5"/>
       <c r="Z275" s="5"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -9268,7 +9290,7 @@
       <c r="Y276" s="5"/>
       <c r="Z276" s="5"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -9296,7 +9318,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="5"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -9324,7 +9346,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="5"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -9352,7 +9374,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="5"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -9380,7 +9402,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="5"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -9408,7 +9430,7 @@
       <c r="Y281" s="5"/>
       <c r="Z281" s="5"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -9436,7 +9458,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -9464,7 +9486,7 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -9492,7 +9514,7 @@
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -9520,7 +9542,7 @@
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -9548,7 +9570,7 @@
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -9576,7 +9598,7 @@
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -9604,7 +9626,7 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -9632,7 +9654,7 @@
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -9660,7 +9682,7 @@
       <c r="Y290" s="5"/>
       <c r="Z290" s="5"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -9688,7 +9710,7 @@
       <c r="Y291" s="5"/>
       <c r="Z291" s="5"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -9716,7 +9738,7 @@
       <c r="Y292" s="5"/>
       <c r="Z292" s="5"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -9744,7 +9766,7 @@
       <c r="Y293" s="5"/>
       <c r="Z293" s="5"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -9772,7 +9794,7 @@
       <c r="Y294" s="5"/>
       <c r="Z294" s="5"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -9800,7 +9822,7 @@
       <c r="Y295" s="5"/>
       <c r="Z295" s="5"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -9828,7 +9850,7 @@
       <c r="Y296" s="5"/>
       <c r="Z296" s="5"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -9856,7 +9878,7 @@
       <c r="Y297" s="5"/>
       <c r="Z297" s="5"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -9884,7 +9906,7 @@
       <c r="Y298" s="5"/>
       <c r="Z298" s="5"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -9912,7 +9934,7 @@
       <c r="Y299" s="5"/>
       <c r="Z299" s="5"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -9940,7 +9962,7 @@
       <c r="Y300" s="5"/>
       <c r="Z300" s="5"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -9968,7 +9990,7 @@
       <c r="Y301" s="5"/>
       <c r="Z301" s="5"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -9996,7 +10018,7 @@
       <c r="Y302" s="5"/>
       <c r="Z302" s="5"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -10024,7 +10046,7 @@
       <c r="Y303" s="5"/>
       <c r="Z303" s="5"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -10052,7 +10074,7 @@
       <c r="Y304" s="5"/>
       <c r="Z304" s="5"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -10080,7 +10102,7 @@
       <c r="Y305" s="5"/>
       <c r="Z305" s="5"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -10108,7 +10130,7 @@
       <c r="Y306" s="5"/>
       <c r="Z306" s="5"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -10136,7 +10158,7 @@
       <c r="Y307" s="5"/>
       <c r="Z307" s="5"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -10164,7 +10186,7 @@
       <c r="Y308" s="5"/>
       <c r="Z308" s="5"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -10192,7 +10214,7 @@
       <c r="Y309" s="5"/>
       <c r="Z309" s="5"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -10220,7 +10242,7 @@
       <c r="Y310" s="5"/>
       <c r="Z310" s="5"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -10248,7 +10270,7 @@
       <c r="Y311" s="5"/>
       <c r="Z311" s="5"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -10276,7 +10298,7 @@
       <c r="Y312" s="5"/>
       <c r="Z312" s="5"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -10304,7 +10326,7 @@
       <c r="Y313" s="5"/>
       <c r="Z313" s="5"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -10332,7 +10354,7 @@
       <c r="Y314" s="5"/>
       <c r="Z314" s="5"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -10360,7 +10382,7 @@
       <c r="Y315" s="5"/>
       <c r="Z315" s="5"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -10388,7 +10410,7 @@
       <c r="Y316" s="5"/>
       <c r="Z316" s="5"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -10416,7 +10438,7 @@
       <c r="Y317" s="5"/>
       <c r="Z317" s="5"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -10444,7 +10466,7 @@
       <c r="Y318" s="5"/>
       <c r="Z318" s="5"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -10472,7 +10494,7 @@
       <c r="Y319" s="5"/>
       <c r="Z319" s="5"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -10500,7 +10522,7 @@
       <c r="Y320" s="5"/>
       <c r="Z320" s="5"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -10528,7 +10550,7 @@
       <c r="Y321" s="5"/>
       <c r="Z321" s="5"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -10556,7 +10578,7 @@
       <c r="Y322" s="5"/>
       <c r="Z322" s="5"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -10584,7 +10606,7 @@
       <c r="Y323" s="5"/>
       <c r="Z323" s="5"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -10612,7 +10634,7 @@
       <c r="Y324" s="5"/>
       <c r="Z324" s="5"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -10640,7 +10662,7 @@
       <c r="Y325" s="5"/>
       <c r="Z325" s="5"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -10668,7 +10690,7 @@
       <c r="Y326" s="5"/>
       <c r="Z326" s="5"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -10696,7 +10718,7 @@
       <c r="Y327" s="5"/>
       <c r="Z327" s="5"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -10724,7 +10746,7 @@
       <c r="Y328" s="5"/>
       <c r="Z328" s="5"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -10752,7 +10774,7 @@
       <c r="Y329" s="5"/>
       <c r="Z329" s="5"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -10780,7 +10802,7 @@
       <c r="Y330" s="5"/>
       <c r="Z330" s="5"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -10808,7 +10830,7 @@
       <c r="Y331" s="5"/>
       <c r="Z331" s="5"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -10836,7 +10858,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="5"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -10864,7 +10886,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="5"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -10892,7 +10914,7 @@
       <c r="Y334" s="5"/>
       <c r="Z334" s="5"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -10920,7 +10942,7 @@
       <c r="Y335" s="5"/>
       <c r="Z335" s="5"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -10948,7 +10970,7 @@
       <c r="Y336" s="5"/>
       <c r="Z336" s="5"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -10976,7 +10998,7 @@
       <c r="Y337" s="5"/>
       <c r="Z337" s="5"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -11004,7 +11026,7 @@
       <c r="Y338" s="5"/>
       <c r="Z338" s="5"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -11032,7 +11054,7 @@
       <c r="Y339" s="5"/>
       <c r="Z339" s="5"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -11060,7 +11082,7 @@
       <c r="Y340" s="5"/>
       <c r="Z340" s="5"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -11088,7 +11110,7 @@
       <c r="Y341" s="5"/>
       <c r="Z341" s="5"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -11116,7 +11138,7 @@
       <c r="Y342" s="5"/>
       <c r="Z342" s="5"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -11144,7 +11166,7 @@
       <c r="Y343" s="5"/>
       <c r="Z343" s="5"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -11172,7 +11194,7 @@
       <c r="Y344" s="5"/>
       <c r="Z344" s="5"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -11200,7 +11222,7 @@
       <c r="Y345" s="5"/>
       <c r="Z345" s="5"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -11228,7 +11250,7 @@
       <c r="Y346" s="5"/>
       <c r="Z346" s="5"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -11256,7 +11278,7 @@
       <c r="Y347" s="5"/>
       <c r="Z347" s="5"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -11284,7 +11306,7 @@
       <c r="Y348" s="5"/>
       <c r="Z348" s="5"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -11312,7 +11334,7 @@
       <c r="Y349" s="5"/>
       <c r="Z349" s="5"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -11340,7 +11362,7 @@
       <c r="Y350" s="5"/>
       <c r="Z350" s="5"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -11368,7 +11390,7 @@
       <c r="Y351" s="5"/>
       <c r="Z351" s="5"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -11396,7 +11418,7 @@
       <c r="Y352" s="5"/>
       <c r="Z352" s="5"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -11424,7 +11446,7 @@
       <c r="Y353" s="5"/>
       <c r="Z353" s="5"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -11452,7 +11474,7 @@
       <c r="Y354" s="5"/>
       <c r="Z354" s="5"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -11480,7 +11502,7 @@
       <c r="Y355" s="5"/>
       <c r="Z355" s="5"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -11508,7 +11530,7 @@
       <c r="Y356" s="5"/>
       <c r="Z356" s="5"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -11536,7 +11558,7 @@
       <c r="Y357" s="5"/>
       <c r="Z357" s="5"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -11564,7 +11586,7 @@
       <c r="Y358" s="5"/>
       <c r="Z358" s="5"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -11592,7 +11614,7 @@
       <c r="Y359" s="5"/>
       <c r="Z359" s="5"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -11620,7 +11642,7 @@
       <c r="Y360" s="5"/>
       <c r="Z360" s="5"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -11648,7 +11670,7 @@
       <c r="Y361" s="5"/>
       <c r="Z361" s="5"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -11676,7 +11698,7 @@
       <c r="Y362" s="5"/>
       <c r="Z362" s="5"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -11704,7 +11726,7 @@
       <c r="Y363" s="5"/>
       <c r="Z363" s="5"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -11732,7 +11754,7 @@
       <c r="Y364" s="5"/>
       <c r="Z364" s="5"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -11760,7 +11782,7 @@
       <c r="Y365" s="5"/>
       <c r="Z365" s="5"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -11788,7 +11810,7 @@
       <c r="Y366" s="5"/>
       <c r="Z366" s="5"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -11816,7 +11838,7 @@
       <c r="Y367" s="5"/>
       <c r="Z367" s="5"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -11844,7 +11866,7 @@
       <c r="Y368" s="5"/>
       <c r="Z368" s="5"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -11872,7 +11894,7 @@
       <c r="Y369" s="5"/>
       <c r="Z369" s="5"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -11900,7 +11922,7 @@
       <c r="Y370" s="5"/>
       <c r="Z370" s="5"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -11928,7 +11950,7 @@
       <c r="Y371" s="5"/>
       <c r="Z371" s="5"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -11956,7 +11978,7 @@
       <c r="Y372" s="5"/>
       <c r="Z372" s="5"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -11984,7 +12006,7 @@
       <c r="Y373" s="5"/>
       <c r="Z373" s="5"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -12012,7 +12034,7 @@
       <c r="Y374" s="5"/>
       <c r="Z374" s="5"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -12040,7 +12062,7 @@
       <c r="Y375" s="5"/>
       <c r="Z375" s="5"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -12068,7 +12090,7 @@
       <c r="Y376" s="5"/>
       <c r="Z376" s="5"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -12096,7 +12118,7 @@
       <c r="Y377" s="5"/>
       <c r="Z377" s="5"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -12124,7 +12146,7 @@
       <c r="Y378" s="5"/>
       <c r="Z378" s="5"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -12152,7 +12174,7 @@
       <c r="Y379" s="5"/>
       <c r="Z379" s="5"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -12180,7 +12202,7 @@
       <c r="Y380" s="5"/>
       <c r="Z380" s="5"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -12208,7 +12230,7 @@
       <c r="Y381" s="5"/>
       <c r="Z381" s="5"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -12236,7 +12258,7 @@
       <c r="Y382" s="5"/>
       <c r="Z382" s="5"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -12264,7 +12286,7 @@
       <c r="Y383" s="5"/>
       <c r="Z383" s="5"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -12292,7 +12314,7 @@
       <c r="Y384" s="5"/>
       <c r="Z384" s="5"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -12320,7 +12342,7 @@
       <c r="Y385" s="5"/>
       <c r="Z385" s="5"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -12348,7 +12370,7 @@
       <c r="Y386" s="5"/>
       <c r="Z386" s="5"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -12376,7 +12398,7 @@
       <c r="Y387" s="5"/>
       <c r="Z387" s="5"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -12404,7 +12426,7 @@
       <c r="Y388" s="5"/>
       <c r="Z388" s="5"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -12432,7 +12454,7 @@
       <c r="Y389" s="5"/>
       <c r="Z389" s="5"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -12460,7 +12482,7 @@
       <c r="Y390" s="5"/>
       <c r="Z390" s="5"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -12488,7 +12510,7 @@
       <c r="Y391" s="5"/>
       <c r="Z391" s="5"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -12516,7 +12538,7 @@
       <c r="Y392" s="5"/>
       <c r="Z392" s="5"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -12544,7 +12566,7 @@
       <c r="Y393" s="5"/>
       <c r="Z393" s="5"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -12572,7 +12594,7 @@
       <c r="Y394" s="5"/>
       <c r="Z394" s="5"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -12600,7 +12622,7 @@
       <c r="Y395" s="5"/>
       <c r="Z395" s="5"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -12628,7 +12650,7 @@
       <c r="Y396" s="5"/>
       <c r="Z396" s="5"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -12656,7 +12678,7 @@
       <c r="Y397" s="5"/>
       <c r="Z397" s="5"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -12684,7 +12706,7 @@
       <c r="Y398" s="5"/>
       <c r="Z398" s="5"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -12712,7 +12734,7 @@
       <c r="Y399" s="5"/>
       <c r="Z399" s="5"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -12740,7 +12762,7 @@
       <c r="Y400" s="5"/>
       <c r="Z400" s="5"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -12768,7 +12790,7 @@
       <c r="Y401" s="5"/>
       <c r="Z401" s="5"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -12796,7 +12818,7 @@
       <c r="Y402" s="5"/>
       <c r="Z402" s="5"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -12824,7 +12846,7 @@
       <c r="Y403" s="5"/>
       <c r="Z403" s="5"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -12852,7 +12874,7 @@
       <c r="Y404" s="5"/>
       <c r="Z404" s="5"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -12880,7 +12902,7 @@
       <c r="Y405" s="5"/>
       <c r="Z405" s="5"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -12908,7 +12930,7 @@
       <c r="Y406" s="5"/>
       <c r="Z406" s="5"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -12936,7 +12958,7 @@
       <c r="Y407" s="5"/>
       <c r="Z407" s="5"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -12964,7 +12986,7 @@
       <c r="Y408" s="5"/>
       <c r="Z408" s="5"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -12992,7 +13014,7 @@
       <c r="Y409" s="5"/>
       <c r="Z409" s="5"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -13020,7 +13042,7 @@
       <c r="Y410" s="5"/>
       <c r="Z410" s="5"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -13048,7 +13070,7 @@
       <c r="Y411" s="5"/>
       <c r="Z411" s="5"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -13076,7 +13098,7 @@
       <c r="Y412" s="5"/>
       <c r="Z412" s="5"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -13104,7 +13126,7 @@
       <c r="Y413" s="5"/>
       <c r="Z413" s="5"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -13132,7 +13154,7 @@
       <c r="Y414" s="5"/>
       <c r="Z414" s="5"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -13160,7 +13182,7 @@
       <c r="Y415" s="5"/>
       <c r="Z415" s="5"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -13188,7 +13210,7 @@
       <c r="Y416" s="5"/>
       <c r="Z416" s="5"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -13216,7 +13238,7 @@
       <c r="Y417" s="5"/>
       <c r="Z417" s="5"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -13244,7 +13266,7 @@
       <c r="Y418" s="5"/>
       <c r="Z418" s="5"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -13272,7 +13294,7 @@
       <c r="Y419" s="5"/>
       <c r="Z419" s="5"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -13300,7 +13322,7 @@
       <c r="Y420" s="5"/>
       <c r="Z420" s="5"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -13328,7 +13350,7 @@
       <c r="Y421" s="5"/>
       <c r="Z421" s="5"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -13356,7 +13378,7 @@
       <c r="Y422" s="5"/>
       <c r="Z422" s="5"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -13384,7 +13406,7 @@
       <c r="Y423" s="5"/>
       <c r="Z423" s="5"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -13412,7 +13434,7 @@
       <c r="Y424" s="5"/>
       <c r="Z424" s="5"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -13440,7 +13462,7 @@
       <c r="Y425" s="5"/>
       <c r="Z425" s="5"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -13468,7 +13490,7 @@
       <c r="Y426" s="5"/>
       <c r="Z426" s="5"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -13496,7 +13518,7 @@
       <c r="Y427" s="5"/>
       <c r="Z427" s="5"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -13524,7 +13546,7 @@
       <c r="Y428" s="5"/>
       <c r="Z428" s="5"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -13552,7 +13574,7 @@
       <c r="Y429" s="5"/>
       <c r="Z429" s="5"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -13580,7 +13602,7 @@
       <c r="Y430" s="5"/>
       <c r="Z430" s="5"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -13608,7 +13630,7 @@
       <c r="Y431" s="5"/>
       <c r="Z431" s="5"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -13636,7 +13658,7 @@
       <c r="Y432" s="5"/>
       <c r="Z432" s="5"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -13664,7 +13686,7 @@
       <c r="Y433" s="5"/>
       <c r="Z433" s="5"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -13692,7 +13714,7 @@
       <c r="Y434" s="5"/>
       <c r="Z434" s="5"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -13720,7 +13742,7 @@
       <c r="Y435" s="5"/>
       <c r="Z435" s="5"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -13748,7 +13770,7 @@
       <c r="Y436" s="5"/>
       <c r="Z436" s="5"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -13776,7 +13798,7 @@
       <c r="Y437" s="5"/>
       <c r="Z437" s="5"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -13804,7 +13826,7 @@
       <c r="Y438" s="5"/>
       <c r="Z438" s="5"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -13832,7 +13854,7 @@
       <c r="Y439" s="5"/>
       <c r="Z439" s="5"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -13860,7 +13882,7 @@
       <c r="Y440" s="5"/>
       <c r="Z440" s="5"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -13888,7 +13910,7 @@
       <c r="Y441" s="5"/>
       <c r="Z441" s="5"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -13916,7 +13938,7 @@
       <c r="Y442" s="5"/>
       <c r="Z442" s="5"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -13944,7 +13966,7 @@
       <c r="Y443" s="5"/>
       <c r="Z443" s="5"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -13972,7 +13994,7 @@
       <c r="Y444" s="5"/>
       <c r="Z444" s="5"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -14000,7 +14022,7 @@
       <c r="Y445" s="5"/>
       <c r="Z445" s="5"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -14028,7 +14050,7 @@
       <c r="Y446" s="5"/>
       <c r="Z446" s="5"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -14056,7 +14078,7 @@
       <c r="Y447" s="5"/>
       <c r="Z447" s="5"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -14084,7 +14106,7 @@
       <c r="Y448" s="5"/>
       <c r="Z448" s="5"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -14112,7 +14134,7 @@
       <c r="Y449" s="5"/>
       <c r="Z449" s="5"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -14140,7 +14162,7 @@
       <c r="Y450" s="5"/>
       <c r="Z450" s="5"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -14168,7 +14190,7 @@
       <c r="Y451" s="5"/>
       <c r="Z451" s="5"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -14196,7 +14218,7 @@
       <c r="Y452" s="5"/>
       <c r="Z452" s="5"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -14224,7 +14246,7 @@
       <c r="Y453" s="5"/>
       <c r="Z453" s="5"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -14252,7 +14274,7 @@
       <c r="Y454" s="5"/>
       <c r="Z454" s="5"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -14280,7 +14302,7 @@
       <c r="Y455" s="5"/>
       <c r="Z455" s="5"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -14308,7 +14330,7 @@
       <c r="Y456" s="5"/>
       <c r="Z456" s="5"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -14336,7 +14358,7 @@
       <c r="Y457" s="5"/>
       <c r="Z457" s="5"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -14364,7 +14386,7 @@
       <c r="Y458" s="5"/>
       <c r="Z458" s="5"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -14392,7 +14414,7 @@
       <c r="Y459" s="5"/>
       <c r="Z459" s="5"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -14420,7 +14442,7 @@
       <c r="Y460" s="5"/>
       <c r="Z460" s="5"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -14448,7 +14470,7 @@
       <c r="Y461" s="5"/>
       <c r="Z461" s="5"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -14476,7 +14498,7 @@
       <c r="Y462" s="5"/>
       <c r="Z462" s="5"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -14504,7 +14526,7 @@
       <c r="Y463" s="5"/>
       <c r="Z463" s="5"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -14532,7 +14554,7 @@
       <c r="Y464" s="5"/>
       <c r="Z464" s="5"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -14560,7 +14582,7 @@
       <c r="Y465" s="5"/>
       <c r="Z465" s="5"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -14588,7 +14610,7 @@
       <c r="Y466" s="5"/>
       <c r="Z466" s="5"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -14616,7 +14638,7 @@
       <c r="Y467" s="5"/>
       <c r="Z467" s="5"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -14644,7 +14666,7 @@
       <c r="Y468" s="5"/>
       <c r="Z468" s="5"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -14672,7 +14694,7 @@
       <c r="Y469" s="5"/>
       <c r="Z469" s="5"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="7"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -14700,7 +14722,7 @@
       <c r="Y470" s="5"/>
       <c r="Z470" s="5"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -14728,7 +14750,7 @@
       <c r="Y471" s="5"/>
       <c r="Z471" s="5"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="7"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -14756,7 +14778,7 @@
       <c r="Y472" s="5"/>
       <c r="Z472" s="5"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="7"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -14784,7 +14806,7 @@
       <c r="Y473" s="5"/>
       <c r="Z473" s="5"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="7"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -14812,7 +14834,7 @@
       <c r="Y474" s="5"/>
       <c r="Z474" s="5"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="7"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -14840,7 +14862,7 @@
       <c r="Y475" s="5"/>
       <c r="Z475" s="5"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="7"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -14868,7 +14890,7 @@
       <c r="Y476" s="5"/>
       <c r="Z476" s="5"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="7"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -14896,7 +14918,7 @@
       <c r="Y477" s="5"/>
       <c r="Z477" s="5"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="7"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -14924,7 +14946,7 @@
       <c r="Y478" s="5"/>
       <c r="Z478" s="5"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="7"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -14952,7 +14974,7 @@
       <c r="Y479" s="5"/>
       <c r="Z479" s="5"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="7"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -14980,7 +15002,7 @@
       <c r="Y480" s="5"/>
       <c r="Z480" s="5"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="7"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -15008,7 +15030,7 @@
       <c r="Y481" s="5"/>
       <c r="Z481" s="5"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="7"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -15036,7 +15058,7 @@
       <c r="Y482" s="5"/>
       <c r="Z482" s="5"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="7"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -15064,7 +15086,7 @@
       <c r="Y483" s="5"/>
       <c r="Z483" s="5"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="7"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -15092,7 +15114,7 @@
       <c r="Y484" s="5"/>
       <c r="Z484" s="5"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="7"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -15120,7 +15142,7 @@
       <c r="Y485" s="5"/>
       <c r="Z485" s="5"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="7"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -15148,7 +15170,7 @@
       <c r="Y486" s="5"/>
       <c r="Z486" s="5"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="7"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -15176,7 +15198,7 @@
       <c r="Y487" s="5"/>
       <c r="Z487" s="5"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="7"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -15204,7 +15226,7 @@
       <c r="Y488" s="5"/>
       <c r="Z488" s="5"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="7"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -15232,7 +15254,7 @@
       <c r="Y489" s="5"/>
       <c r="Z489" s="5"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="7"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -15260,7 +15282,7 @@
       <c r="Y490" s="5"/>
       <c r="Z490" s="5"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="7"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -15288,7 +15310,7 @@
       <c r="Y491" s="5"/>
       <c r="Z491" s="5"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="7"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -15316,7 +15338,7 @@
       <c r="Y492" s="5"/>
       <c r="Z492" s="5"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="7"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -15344,7 +15366,7 @@
       <c r="Y493" s="5"/>
       <c r="Z493" s="5"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="7"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -15372,7 +15394,7 @@
       <c r="Y494" s="5"/>
       <c r="Z494" s="5"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -15400,7 +15422,7 @@
       <c r="Y495" s="5"/>
       <c r="Z495" s="5"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -15428,7 +15450,7 @@
       <c r="Y496" s="5"/>
       <c r="Z496" s="5"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -15456,7 +15478,7 @@
       <c r="Y497" s="5"/>
       <c r="Z497" s="5"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -15484,7 +15506,7 @@
       <c r="Y498" s="5"/>
       <c r="Z498" s="5"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="7"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -15512,7 +15534,7 @@
       <c r="Y499" s="5"/>
       <c r="Z499" s="5"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="7"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -15540,7 +15562,7 @@
       <c r="Y500" s="5"/>
       <c r="Z500" s="5"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="7"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -15568,7 +15590,7 @@
       <c r="Y501" s="5"/>
       <c r="Z501" s="5"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="7"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -15596,7 +15618,7 @@
       <c r="Y502" s="5"/>
       <c r="Z502" s="5"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="7"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -15624,7 +15646,7 @@
       <c r="Y503" s="5"/>
       <c r="Z503" s="5"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="7"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -15652,7 +15674,7 @@
       <c r="Y504" s="5"/>
       <c r="Z504" s="5"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="7"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -15680,7 +15702,7 @@
       <c r="Y505" s="5"/>
       <c r="Z505" s="5"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="7"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -15708,7 +15730,7 @@
       <c r="Y506" s="5"/>
       <c r="Z506" s="5"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="7"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -15736,7 +15758,7 @@
       <c r="Y507" s="5"/>
       <c r="Z507" s="5"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="7"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -15764,7 +15786,7 @@
       <c r="Y508" s="5"/>
       <c r="Z508" s="5"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="7"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -15792,7 +15814,7 @@
       <c r="Y509" s="5"/>
       <c r="Z509" s="5"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="7"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -15820,7 +15842,7 @@
       <c r="Y510" s="5"/>
       <c r="Z510" s="5"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="7"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -15848,7 +15870,7 @@
       <c r="Y511" s="5"/>
       <c r="Z511" s="5"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="7"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -15876,7 +15898,7 @@
       <c r="Y512" s="5"/>
       <c r="Z512" s="5"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="7"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -15904,7 +15926,7 @@
       <c r="Y513" s="5"/>
       <c r="Z513" s="5"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="7"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -15932,7 +15954,7 @@
       <c r="Y514" s="5"/>
       <c r="Z514" s="5"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="7"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -15960,7 +15982,7 @@
       <c r="Y515" s="5"/>
       <c r="Z515" s="5"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="7"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -15988,7 +16010,7 @@
       <c r="Y516" s="5"/>
       <c r="Z516" s="5"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="7"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -16016,7 +16038,7 @@
       <c r="Y517" s="5"/>
       <c r="Z517" s="5"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="7"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -16044,7 +16066,7 @@
       <c r="Y518" s="5"/>
       <c r="Z518" s="5"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="7"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -16072,7 +16094,7 @@
       <c r="Y519" s="5"/>
       <c r="Z519" s="5"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="7"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -16100,7 +16122,7 @@
       <c r="Y520" s="5"/>
       <c r="Z520" s="5"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="7"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -16128,7 +16150,7 @@
       <c r="Y521" s="5"/>
       <c r="Z521" s="5"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="7"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -16156,7 +16178,7 @@
       <c r="Y522" s="5"/>
       <c r="Z522" s="5"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="7"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -16184,7 +16206,7 @@
       <c r="Y523" s="5"/>
       <c r="Z523" s="5"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="7"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -16212,7 +16234,7 @@
       <c r="Y524" s="5"/>
       <c r="Z524" s="5"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="7"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -16240,7 +16262,7 @@
       <c r="Y525" s="5"/>
       <c r="Z525" s="5"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="7"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -16268,7 +16290,7 @@
       <c r="Y526" s="5"/>
       <c r="Z526" s="5"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="7"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -16296,7 +16318,7 @@
       <c r="Y527" s="5"/>
       <c r="Z527" s="5"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="7"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -16324,7 +16346,7 @@
       <c r="Y528" s="5"/>
       <c r="Z528" s="5"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="7"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -16352,7 +16374,7 @@
       <c r="Y529" s="5"/>
       <c r="Z529" s="5"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="7"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -16380,7 +16402,7 @@
       <c r="Y530" s="5"/>
       <c r="Z530" s="5"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="7"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -16408,7 +16430,7 @@
       <c r="Y531" s="5"/>
       <c r="Z531" s="5"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="7"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -16436,7 +16458,7 @@
       <c r="Y532" s="5"/>
       <c r="Z532" s="5"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="7"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -16464,7 +16486,7 @@
       <c r="Y533" s="5"/>
       <c r="Z533" s="5"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="7"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -16492,7 +16514,7 @@
       <c r="Y534" s="5"/>
       <c r="Z534" s="5"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="7"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -16520,7 +16542,7 @@
       <c r="Y535" s="5"/>
       <c r="Z535" s="5"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="7"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -16548,7 +16570,7 @@
       <c r="Y536" s="5"/>
       <c r="Z536" s="5"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="7"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -16576,7 +16598,7 @@
       <c r="Y537" s="5"/>
       <c r="Z537" s="5"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="7"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -16604,7 +16626,7 @@
       <c r="Y538" s="5"/>
       <c r="Z538" s="5"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="7"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -16632,7 +16654,7 @@
       <c r="Y539" s="5"/>
       <c r="Z539" s="5"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="7"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -16660,7 +16682,7 @@
       <c r="Y540" s="5"/>
       <c r="Z540" s="5"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="7"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -16688,7 +16710,7 @@
       <c r="Y541" s="5"/>
       <c r="Z541" s="5"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="7"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -16716,7 +16738,7 @@
       <c r="Y542" s="5"/>
       <c r="Z542" s="5"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="7"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -16744,7 +16766,7 @@
       <c r="Y543" s="5"/>
       <c r="Z543" s="5"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="7"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -16772,7 +16794,7 @@
       <c r="Y544" s="5"/>
       <c r="Z544" s="5"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="7"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -16800,7 +16822,7 @@
       <c r="Y545" s="5"/>
       <c r="Z545" s="5"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="7"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -16828,7 +16850,7 @@
       <c r="Y546" s="5"/>
       <c r="Z546" s="5"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="7"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -16856,7 +16878,7 @@
       <c r="Y547" s="5"/>
       <c r="Z547" s="5"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="7"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -16884,7 +16906,7 @@
       <c r="Y548" s="5"/>
       <c r="Z548" s="5"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="7"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -16912,7 +16934,7 @@
       <c r="Y549" s="5"/>
       <c r="Z549" s="5"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="7"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -16940,7 +16962,7 @@
       <c r="Y550" s="5"/>
       <c r="Z550" s="5"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="7"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -16968,7 +16990,7 @@
       <c r="Y551" s="5"/>
       <c r="Z551" s="5"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="7"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -16996,7 +17018,7 @@
       <c r="Y552" s="5"/>
       <c r="Z552" s="5"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="7"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -17024,7 +17046,7 @@
       <c r="Y553" s="5"/>
       <c r="Z553" s="5"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="7"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -17052,7 +17074,7 @@
       <c r="Y554" s="5"/>
       <c r="Z554" s="5"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="7"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -17080,7 +17102,7 @@
       <c r="Y555" s="5"/>
       <c r="Z555" s="5"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="7"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -17108,7 +17130,7 @@
       <c r="Y556" s="5"/>
       <c r="Z556" s="5"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="7"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -17136,7 +17158,7 @@
       <c r="Y557" s="5"/>
       <c r="Z557" s="5"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="7"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -17164,7 +17186,7 @@
       <c r="Y558" s="5"/>
       <c r="Z558" s="5"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="7"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -17192,7 +17214,7 @@
       <c r="Y559" s="5"/>
       <c r="Z559" s="5"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="7"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -17220,7 +17242,7 @@
       <c r="Y560" s="5"/>
       <c r="Z560" s="5"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="7"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -17248,7 +17270,7 @@
       <c r="Y561" s="5"/>
       <c r="Z561" s="5"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="7"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -17276,7 +17298,7 @@
       <c r="Y562" s="5"/>
       <c r="Z562" s="5"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="7"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -17304,7 +17326,7 @@
       <c r="Y563" s="5"/>
       <c r="Z563" s="5"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="7"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -17332,7 +17354,7 @@
       <c r="Y564" s="5"/>
       <c r="Z564" s="5"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="7"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -17360,7 +17382,7 @@
       <c r="Y565" s="5"/>
       <c r="Z565" s="5"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="7"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -17388,7 +17410,7 @@
       <c r="Y566" s="5"/>
       <c r="Z566" s="5"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="7"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -17416,7 +17438,7 @@
       <c r="Y567" s="5"/>
       <c r="Z567" s="5"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="7"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -17444,7 +17466,7 @@
       <c r="Y568" s="5"/>
       <c r="Z568" s="5"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="7"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -17472,7 +17494,7 @@
       <c r="Y569" s="5"/>
       <c r="Z569" s="5"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="7"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -17500,7 +17522,7 @@
       <c r="Y570" s="5"/>
       <c r="Z570" s="5"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="7"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -17528,7 +17550,7 @@
       <c r="Y571" s="5"/>
       <c r="Z571" s="5"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="7"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -17556,7 +17578,7 @@
       <c r="Y572" s="5"/>
       <c r="Z572" s="5"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="7"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -17584,7 +17606,7 @@
       <c r="Y573" s="5"/>
       <c r="Z573" s="5"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="7"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -17612,7 +17634,7 @@
       <c r="Y574" s="5"/>
       <c r="Z574" s="5"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="7"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -17640,7 +17662,7 @@
       <c r="Y575" s="5"/>
       <c r="Z575" s="5"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="7"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -17668,7 +17690,7 @@
       <c r="Y576" s="5"/>
       <c r="Z576" s="5"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="7"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -17696,7 +17718,7 @@
       <c r="Y577" s="5"/>
       <c r="Z577" s="5"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="7"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -17724,7 +17746,7 @@
       <c r="Y578" s="5"/>
       <c r="Z578" s="5"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="7"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -17752,7 +17774,7 @@
       <c r="Y579" s="5"/>
       <c r="Z579" s="5"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="7"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -17780,7 +17802,7 @@
       <c r="Y580" s="5"/>
       <c r="Z580" s="5"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="7"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -17808,7 +17830,7 @@
       <c r="Y581" s="5"/>
       <c r="Z581" s="5"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="7"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -17836,7 +17858,7 @@
       <c r="Y582" s="5"/>
       <c r="Z582" s="5"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="7"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -17864,7 +17886,7 @@
       <c r="Y583" s="5"/>
       <c r="Z583" s="5"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="7"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -17892,7 +17914,7 @@
       <c r="Y584" s="5"/>
       <c r="Z584" s="5"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="7"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -17920,7 +17942,7 @@
       <c r="Y585" s="5"/>
       <c r="Z585" s="5"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="7"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -17948,7 +17970,7 @@
       <c r="Y586" s="5"/>
       <c r="Z586" s="5"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="7"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -17976,7 +17998,7 @@
       <c r="Y587" s="5"/>
       <c r="Z587" s="5"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="7"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -18004,7 +18026,7 @@
       <c r="Y588" s="5"/>
       <c r="Z588" s="5"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="7"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -18032,7 +18054,7 @@
       <c r="Y589" s="5"/>
       <c r="Z589" s="5"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="7"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -18060,7 +18082,7 @@
       <c r="Y590" s="5"/>
       <c r="Z590" s="5"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="7"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -18088,7 +18110,7 @@
       <c r="Y591" s="5"/>
       <c r="Z591" s="5"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="7"/>
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
@@ -18116,7 +18138,7 @@
       <c r="Y592" s="5"/>
       <c r="Z592" s="5"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="7"/>
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
@@ -18144,7 +18166,7 @@
       <c r="Y593" s="5"/>
       <c r="Z593" s="5"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="7"/>
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
@@ -18172,7 +18194,7 @@
       <c r="Y594" s="5"/>
       <c r="Z594" s="5"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="7"/>
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
@@ -18200,7 +18222,7 @@
       <c r="Y595" s="5"/>
       <c r="Z595" s="5"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="7"/>
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
@@ -18228,7 +18250,7 @@
       <c r="Y596" s="5"/>
       <c r="Z596" s="5"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="7"/>
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
@@ -18256,7 +18278,7 @@
       <c r="Y597" s="5"/>
       <c r="Z597" s="5"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="7"/>
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
@@ -18284,7 +18306,7 @@
       <c r="Y598" s="5"/>
       <c r="Z598" s="5"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="7"/>
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
@@ -18312,7 +18334,7 @@
       <c r="Y599" s="5"/>
       <c r="Z599" s="5"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="7"/>
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
@@ -18340,7 +18362,7 @@
       <c r="Y600" s="5"/>
       <c r="Z600" s="5"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="7"/>
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
@@ -18368,7 +18390,7 @@
       <c r="Y601" s="5"/>
       <c r="Z601" s="5"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="7"/>
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
@@ -18396,7 +18418,7 @@
       <c r="Y602" s="5"/>
       <c r="Z602" s="5"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="7"/>
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
@@ -18424,7 +18446,7 @@
       <c r="Y603" s="5"/>
       <c r="Z603" s="5"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="7"/>
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
@@ -18452,7 +18474,7 @@
       <c r="Y604" s="5"/>
       <c r="Z604" s="5"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="7"/>
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
@@ -18480,7 +18502,7 @@
       <c r="Y605" s="5"/>
       <c r="Z605" s="5"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="7"/>
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
@@ -18508,7 +18530,7 @@
       <c r="Y606" s="5"/>
       <c r="Z606" s="5"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="7"/>
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
@@ -18536,7 +18558,7 @@
       <c r="Y607" s="5"/>
       <c r="Z607" s="5"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="7"/>
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
@@ -18564,7 +18586,7 @@
       <c r="Y608" s="5"/>
       <c r="Z608" s="5"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="7"/>
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
@@ -18592,7 +18614,7 @@
       <c r="Y609" s="5"/>
       <c r="Z609" s="5"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="7"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
@@ -18620,7 +18642,7 @@
       <c r="Y610" s="5"/>
       <c r="Z610" s="5"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="7"/>
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
@@ -18648,7 +18670,7 @@
       <c r="Y611" s="5"/>
       <c r="Z611" s="5"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="7"/>
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
@@ -18676,7 +18698,7 @@
       <c r="Y612" s="5"/>
       <c r="Z612" s="5"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="7"/>
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
@@ -18704,7 +18726,7 @@
       <c r="Y613" s="5"/>
       <c r="Z613" s="5"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="7"/>
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
@@ -18732,7 +18754,7 @@
       <c r="Y614" s="5"/>
       <c r="Z614" s="5"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="7"/>
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
@@ -18760,7 +18782,7 @@
       <c r="Y615" s="5"/>
       <c r="Z615" s="5"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="7"/>
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
@@ -18788,7 +18810,7 @@
       <c r="Y616" s="5"/>
       <c r="Z616" s="5"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="7"/>
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
@@ -18816,7 +18838,7 @@
       <c r="Y617" s="5"/>
       <c r="Z617" s="5"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="7"/>
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
@@ -18844,7 +18866,7 @@
       <c r="Y618" s="5"/>
       <c r="Z618" s="5"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="7"/>
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
@@ -18872,7 +18894,7 @@
       <c r="Y619" s="5"/>
       <c r="Z619" s="5"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="7"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -18900,7 +18922,7 @@
       <c r="Y620" s="5"/>
       <c r="Z620" s="5"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="7"/>
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
@@ -18928,7 +18950,7 @@
       <c r="Y621" s="5"/>
       <c r="Z621" s="5"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="7"/>
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
@@ -18956,7 +18978,7 @@
       <c r="Y622" s="5"/>
       <c r="Z622" s="5"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="7"/>
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
@@ -18984,7 +19006,7 @@
       <c r="Y623" s="5"/>
       <c r="Z623" s="5"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="7"/>
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
@@ -19012,7 +19034,7 @@
       <c r="Y624" s="5"/>
       <c r="Z624" s="5"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="7"/>
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
@@ -19040,7 +19062,7 @@
       <c r="Y625" s="5"/>
       <c r="Z625" s="5"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="7"/>
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
@@ -19068,7 +19090,7 @@
       <c r="Y626" s="5"/>
       <c r="Z626" s="5"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="7"/>
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
@@ -19096,7 +19118,7 @@
       <c r="Y627" s="5"/>
       <c r="Z627" s="5"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="7"/>
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
@@ -19124,7 +19146,7 @@
       <c r="Y628" s="5"/>
       <c r="Z628" s="5"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="7"/>
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
@@ -19152,7 +19174,7 @@
       <c r="Y629" s="5"/>
       <c r="Z629" s="5"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="7"/>
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
@@ -19180,7 +19202,7 @@
       <c r="Y630" s="5"/>
       <c r="Z630" s="5"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="7"/>
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
@@ -19208,7 +19230,7 @@
       <c r="Y631" s="5"/>
       <c r="Z631" s="5"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="7"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
@@ -19236,7 +19258,7 @@
       <c r="Y632" s="5"/>
       <c r="Z632" s="5"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="7"/>
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
@@ -19264,7 +19286,7 @@
       <c r="Y633" s="5"/>
       <c r="Z633" s="5"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="7"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
@@ -19292,7 +19314,7 @@
       <c r="Y634" s="5"/>
       <c r="Z634" s="5"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="7"/>
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
@@ -19320,7 +19342,7 @@
       <c r="Y635" s="5"/>
       <c r="Z635" s="5"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="7"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
@@ -19348,7 +19370,7 @@
       <c r="Y636" s="5"/>
       <c r="Z636" s="5"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="7"/>
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
@@ -19376,7 +19398,7 @@
       <c r="Y637" s="5"/>
       <c r="Z637" s="5"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="7"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
@@ -19404,7 +19426,7 @@
       <c r="Y638" s="5"/>
       <c r="Z638" s="5"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="7"/>
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
@@ -19432,7 +19454,7 @@
       <c r="Y639" s="5"/>
       <c r="Z639" s="5"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="7"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
@@ -19460,7 +19482,7 @@
       <c r="Y640" s="5"/>
       <c r="Z640" s="5"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="7"/>
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
@@ -19488,7 +19510,7 @@
       <c r="Y641" s="5"/>
       <c r="Z641" s="5"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="7"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
@@ -19516,7 +19538,7 @@
       <c r="Y642" s="5"/>
       <c r="Z642" s="5"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="7"/>
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
@@ -19544,7 +19566,7 @@
       <c r="Y643" s="5"/>
       <c r="Z643" s="5"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="7"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
@@ -19572,7 +19594,7 @@
       <c r="Y644" s="5"/>
       <c r="Z644" s="5"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="7"/>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
@@ -19600,7 +19622,7 @@
       <c r="Y645" s="5"/>
       <c r="Z645" s="5"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="7"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
@@ -19628,7 +19650,7 @@
       <c r="Y646" s="5"/>
       <c r="Z646" s="5"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="7"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -19656,7 +19678,7 @@
       <c r="Y647" s="5"/>
       <c r="Z647" s="5"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="7"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
@@ -19684,7 +19706,7 @@
       <c r="Y648" s="5"/>
       <c r="Z648" s="5"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="7"/>
       <c r="B649" s="7"/>
       <c r="C649" s="7"/>
@@ -19712,7 +19734,7 @@
       <c r="Y649" s="5"/>
       <c r="Z649" s="5"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="7"/>
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
@@ -19740,7 +19762,7 @@
       <c r="Y650" s="5"/>
       <c r="Z650" s="5"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="7"/>
       <c r="B651" s="7"/>
       <c r="C651" s="7"/>
@@ -19768,7 +19790,7 @@
       <c r="Y651" s="5"/>
       <c r="Z651" s="5"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="7"/>
       <c r="B652" s="7"/>
       <c r="C652" s="7"/>
@@ -19796,7 +19818,7 @@
       <c r="Y652" s="5"/>
       <c r="Z652" s="5"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="7"/>
       <c r="B653" s="7"/>
       <c r="C653" s="7"/>
@@ -19824,7 +19846,7 @@
       <c r="Y653" s="5"/>
       <c r="Z653" s="5"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="7"/>
       <c r="B654" s="7"/>
       <c r="C654" s="7"/>
@@ -19852,7 +19874,7 @@
       <c r="Y654" s="5"/>
       <c r="Z654" s="5"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="7"/>
       <c r="B655" s="7"/>
       <c r="C655" s="7"/>
@@ -19880,7 +19902,7 @@
       <c r="Y655" s="5"/>
       <c r="Z655" s="5"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="7"/>
       <c r="B656" s="7"/>
       <c r="C656" s="7"/>
@@ -19908,7 +19930,7 @@
       <c r="Y656" s="5"/>
       <c r="Z656" s="5"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="7"/>
       <c r="B657" s="7"/>
       <c r="C657" s="7"/>
@@ -19936,7 +19958,7 @@
       <c r="Y657" s="5"/>
       <c r="Z657" s="5"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="7"/>
       <c r="B658" s="7"/>
       <c r="C658" s="7"/>
@@ -19964,7 +19986,7 @@
       <c r="Y658" s="5"/>
       <c r="Z658" s="5"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="7"/>
       <c r="B659" s="7"/>
       <c r="C659" s="7"/>
@@ -19992,7 +20014,7 @@
       <c r="Y659" s="5"/>
       <c r="Z659" s="5"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="7"/>
       <c r="B660" s="7"/>
       <c r="C660" s="7"/>
@@ -20020,7 +20042,7 @@
       <c r="Y660" s="5"/>
       <c r="Z660" s="5"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="7"/>
       <c r="B661" s="7"/>
       <c r="C661" s="7"/>
@@ -20048,7 +20070,7 @@
       <c r="Y661" s="5"/>
       <c r="Z661" s="5"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="7"/>
       <c r="B662" s="7"/>
       <c r="C662" s="7"/>
@@ -20076,7 +20098,7 @@
       <c r="Y662" s="5"/>
       <c r="Z662" s="5"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="7"/>
       <c r="B663" s="7"/>
       <c r="C663" s="7"/>
@@ -20104,7 +20126,7 @@
       <c r="Y663" s="5"/>
       <c r="Z663" s="5"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="7"/>
       <c r="B664" s="7"/>
       <c r="C664" s="7"/>
@@ -20132,7 +20154,7 @@
       <c r="Y664" s="5"/>
       <c r="Z664" s="5"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="7"/>
       <c r="B665" s="7"/>
       <c r="C665" s="7"/>
@@ -20160,7 +20182,7 @@
       <c r="Y665" s="5"/>
       <c r="Z665" s="5"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="7"/>
       <c r="B666" s="7"/>
       <c r="C666" s="7"/>
@@ -20188,7 +20210,7 @@
       <c r="Y666" s="5"/>
       <c r="Z666" s="5"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="7"/>
       <c r="B667" s="7"/>
       <c r="C667" s="7"/>
@@ -20216,7 +20238,7 @@
       <c r="Y667" s="5"/>
       <c r="Z667" s="5"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="7"/>
       <c r="B668" s="7"/>
       <c r="C668" s="7"/>
@@ -20244,7 +20266,7 @@
       <c r="Y668" s="5"/>
       <c r="Z668" s="5"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="7"/>
       <c r="B669" s="7"/>
       <c r="C669" s="7"/>
@@ -20272,7 +20294,7 @@
       <c r="Y669" s="5"/>
       <c r="Z669" s="5"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="7"/>
       <c r="B670" s="7"/>
       <c r="C670" s="7"/>
@@ -20300,7 +20322,7 @@
       <c r="Y670" s="5"/>
       <c r="Z670" s="5"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="7"/>
       <c r="B671" s="7"/>
       <c r="C671" s="7"/>
@@ -20328,7 +20350,7 @@
       <c r="Y671" s="5"/>
       <c r="Z671" s="5"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="7"/>
       <c r="B672" s="7"/>
       <c r="C672" s="7"/>
@@ -20356,7 +20378,7 @@
       <c r="Y672" s="5"/>
       <c r="Z672" s="5"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="7"/>
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
@@ -20384,7 +20406,7 @@
       <c r="Y673" s="5"/>
       <c r="Z673" s="5"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="7"/>
       <c r="B674" s="7"/>
       <c r="C674" s="7"/>
@@ -20412,7 +20434,7 @@
       <c r="Y674" s="5"/>
       <c r="Z674" s="5"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="7"/>
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
@@ -20440,7 +20462,7 @@
       <c r="Y675" s="5"/>
       <c r="Z675" s="5"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="7"/>
       <c r="B676" s="7"/>
       <c r="C676" s="7"/>
@@ -20468,7 +20490,7 @@
       <c r="Y676" s="5"/>
       <c r="Z676" s="5"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="7"/>
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
@@ -20496,7 +20518,7 @@
       <c r="Y677" s="5"/>
       <c r="Z677" s="5"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="7"/>
       <c r="B678" s="7"/>
       <c r="C678" s="7"/>
@@ -20524,7 +20546,7 @@
       <c r="Y678" s="5"/>
       <c r="Z678" s="5"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="7"/>
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
@@ -20552,7 +20574,7 @@
       <c r="Y679" s="5"/>
       <c r="Z679" s="5"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="7"/>
       <c r="B680" s="7"/>
       <c r="C680" s="7"/>
@@ -20580,7 +20602,7 @@
       <c r="Y680" s="5"/>
       <c r="Z680" s="5"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="7"/>
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
@@ -20608,7 +20630,7 @@
       <c r="Y681" s="5"/>
       <c r="Z681" s="5"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="7"/>
       <c r="B682" s="7"/>
       <c r="C682" s="7"/>
@@ -20636,7 +20658,7 @@
       <c r="Y682" s="5"/>
       <c r="Z682" s="5"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="7"/>
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
@@ -20664,7 +20686,7 @@
       <c r="Y683" s="5"/>
       <c r="Z683" s="5"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="7"/>
       <c r="B684" s="7"/>
       <c r="C684" s="7"/>
@@ -20692,7 +20714,7 @@
       <c r="Y684" s="5"/>
       <c r="Z684" s="5"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="7"/>
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
@@ -20720,7 +20742,7 @@
       <c r="Y685" s="5"/>
       <c r="Z685" s="5"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="7"/>
       <c r="B686" s="7"/>
       <c r="C686" s="7"/>
@@ -20748,7 +20770,7 @@
       <c r="Y686" s="5"/>
       <c r="Z686" s="5"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="7"/>
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
@@ -20776,7 +20798,7 @@
       <c r="Y687" s="5"/>
       <c r="Z687" s="5"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="7"/>
       <c r="B688" s="7"/>
       <c r="C688" s="7"/>
@@ -20804,7 +20826,7 @@
       <c r="Y688" s="5"/>
       <c r="Z688" s="5"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="7"/>
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
@@ -20832,7 +20854,7 @@
       <c r="Y689" s="5"/>
       <c r="Z689" s="5"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="7"/>
       <c r="B690" s="7"/>
       <c r="C690" s="7"/>
@@ -20860,7 +20882,7 @@
       <c r="Y690" s="5"/>
       <c r="Z690" s="5"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="7"/>
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
@@ -20888,7 +20910,7 @@
       <c r="Y691" s="5"/>
       <c r="Z691" s="5"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="7"/>
       <c r="B692" s="7"/>
       <c r="C692" s="7"/>
@@ -20916,7 +20938,7 @@
       <c r="Y692" s="5"/>
       <c r="Z692" s="5"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="7"/>
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
@@ -20944,7 +20966,7 @@
       <c r="Y693" s="5"/>
       <c r="Z693" s="5"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="7"/>
       <c r="B694" s="7"/>
       <c r="C694" s="7"/>
@@ -20972,7 +20994,7 @@
       <c r="Y694" s="5"/>
       <c r="Z694" s="5"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="7"/>
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
@@ -21000,7 +21022,7 @@
       <c r="Y695" s="5"/>
       <c r="Z695" s="5"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="7"/>
       <c r="B696" s="7"/>
       <c r="C696" s="7"/>
@@ -21028,7 +21050,7 @@
       <c r="Y696" s="5"/>
       <c r="Z696" s="5"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="7"/>
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
@@ -21056,7 +21078,7 @@
       <c r="Y697" s="5"/>
       <c r="Z697" s="5"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="7"/>
       <c r="B698" s="7"/>
       <c r="C698" s="7"/>
@@ -21084,7 +21106,7 @@
       <c r="Y698" s="5"/>
       <c r="Z698" s="5"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="7"/>
       <c r="B699" s="7"/>
       <c r="C699" s="7"/>
@@ -21112,7 +21134,7 @@
       <c r="Y699" s="5"/>
       <c r="Z699" s="5"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="7"/>
       <c r="B700" s="7"/>
       <c r="C700" s="7"/>
@@ -21140,7 +21162,7 @@
       <c r="Y700" s="5"/>
       <c r="Z700" s="5"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="7"/>
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
@@ -21168,7 +21190,7 @@
       <c r="Y701" s="5"/>
       <c r="Z701" s="5"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="7"/>
       <c r="B702" s="7"/>
       <c r="C702" s="7"/>
@@ -21196,7 +21218,7 @@
       <c r="Y702" s="5"/>
       <c r="Z702" s="5"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="7"/>
       <c r="B703" s="7"/>
       <c r="C703" s="7"/>
@@ -21224,7 +21246,7 @@
       <c r="Y703" s="5"/>
       <c r="Z703" s="5"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="7"/>
       <c r="B704" s="7"/>
       <c r="C704" s="7"/>
@@ -21252,7 +21274,7 @@
       <c r="Y704" s="5"/>
       <c r="Z704" s="5"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="7"/>
       <c r="B705" s="7"/>
       <c r="C705" s="7"/>
@@ -21280,7 +21302,7 @@
       <c r="Y705" s="5"/>
       <c r="Z705" s="5"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="7"/>
       <c r="B706" s="7"/>
       <c r="C706" s="7"/>
@@ -21308,7 +21330,7 @@
       <c r="Y706" s="5"/>
       <c r="Z706" s="5"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="7"/>
       <c r="B707" s="7"/>
       <c r="C707" s="7"/>
@@ -21336,7 +21358,7 @@
       <c r="Y707" s="5"/>
       <c r="Z707" s="5"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="7"/>
       <c r="B708" s="7"/>
       <c r="C708" s="7"/>
@@ -21364,7 +21386,7 @@
       <c r="Y708" s="5"/>
       <c r="Z708" s="5"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="7"/>
       <c r="B709" s="7"/>
       <c r="C709" s="7"/>
@@ -21392,7 +21414,7 @@
       <c r="Y709" s="5"/>
       <c r="Z709" s="5"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="7"/>
       <c r="B710" s="7"/>
       <c r="C710" s="7"/>
@@ -21420,7 +21442,7 @@
       <c r="Y710" s="5"/>
       <c r="Z710" s="5"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="7"/>
       <c r="B711" s="7"/>
       <c r="C711" s="7"/>
@@ -21448,7 +21470,7 @@
       <c r="Y711" s="5"/>
       <c r="Z711" s="5"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="7"/>
       <c r="B712" s="7"/>
       <c r="C712" s="7"/>
@@ -21476,7 +21498,7 @@
       <c r="Y712" s="5"/>
       <c r="Z712" s="5"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="7"/>
       <c r="B713" s="7"/>
       <c r="C713" s="7"/>
@@ -21504,7 +21526,7 @@
       <c r="Y713" s="5"/>
       <c r="Z713" s="5"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="7"/>
       <c r="B714" s="7"/>
       <c r="C714" s="7"/>
@@ -21532,7 +21554,7 @@
       <c r="Y714" s="5"/>
       <c r="Z714" s="5"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="7"/>
       <c r="B715" s="7"/>
       <c r="C715" s="7"/>
@@ -21560,7 +21582,7 @@
       <c r="Y715" s="5"/>
       <c r="Z715" s="5"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="7"/>
       <c r="B716" s="7"/>
       <c r="C716" s="7"/>
@@ -21588,7 +21610,7 @@
       <c r="Y716" s="5"/>
       <c r="Z716" s="5"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="7"/>
       <c r="B717" s="7"/>
       <c r="C717" s="7"/>
@@ -21616,7 +21638,7 @@
       <c r="Y717" s="5"/>
       <c r="Z717" s="5"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="7"/>
       <c r="B718" s="7"/>
       <c r="C718" s="7"/>
@@ -21644,7 +21666,7 @@
       <c r="Y718" s="5"/>
       <c r="Z718" s="5"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="7"/>
       <c r="B719" s="7"/>
       <c r="C719" s="7"/>
@@ -21672,7 +21694,7 @@
       <c r="Y719" s="5"/>
       <c r="Z719" s="5"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="7"/>
       <c r="B720" s="7"/>
       <c r="C720" s="7"/>
@@ -21700,7 +21722,7 @@
       <c r="Y720" s="5"/>
       <c r="Z720" s="5"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="7"/>
       <c r="B721" s="7"/>
       <c r="C721" s="7"/>
@@ -21728,7 +21750,7 @@
       <c r="Y721" s="5"/>
       <c r="Z721" s="5"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="7"/>
       <c r="B722" s="7"/>
       <c r="C722" s="7"/>
@@ -21756,7 +21778,7 @@
       <c r="Y722" s="5"/>
       <c r="Z722" s="5"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="7"/>
       <c r="B723" s="7"/>
       <c r="C723" s="7"/>
@@ -21784,7 +21806,7 @@
       <c r="Y723" s="5"/>
       <c r="Z723" s="5"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="7"/>
       <c r="B724" s="7"/>
       <c r="C724" s="7"/>
@@ -21812,7 +21834,7 @@
       <c r="Y724" s="5"/>
       <c r="Z724" s="5"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="7"/>
       <c r="B725" s="7"/>
       <c r="C725" s="7"/>
@@ -21840,7 +21862,7 @@
       <c r="Y725" s="5"/>
       <c r="Z725" s="5"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="7"/>
       <c r="B726" s="7"/>
       <c r="C726" s="7"/>
@@ -21868,7 +21890,7 @@
       <c r="Y726" s="5"/>
       <c r="Z726" s="5"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="7"/>
       <c r="B727" s="7"/>
       <c r="C727" s="7"/>
@@ -21896,7 +21918,7 @@
       <c r="Y727" s="5"/>
       <c r="Z727" s="5"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="7"/>
       <c r="B728" s="7"/>
       <c r="C728" s="7"/>
@@ -21924,7 +21946,7 @@
       <c r="Y728" s="5"/>
       <c r="Z728" s="5"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="7"/>
       <c r="B729" s="7"/>
       <c r="C729" s="7"/>
@@ -21952,7 +21974,7 @@
       <c r="Y729" s="5"/>
       <c r="Z729" s="5"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="7"/>
       <c r="B730" s="7"/>
       <c r="C730" s="7"/>
@@ -21980,7 +22002,7 @@
       <c r="Y730" s="5"/>
       <c r="Z730" s="5"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="7"/>
       <c r="B731" s="7"/>
       <c r="C731" s="7"/>
@@ -22008,7 +22030,7 @@
       <c r="Y731" s="5"/>
       <c r="Z731" s="5"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="7"/>
       <c r="B732" s="7"/>
       <c r="C732" s="7"/>
@@ -22036,7 +22058,7 @@
       <c r="Y732" s="5"/>
       <c r="Z732" s="5"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="7"/>
       <c r="B733" s="7"/>
       <c r="C733" s="7"/>
@@ -22064,7 +22086,7 @@
       <c r="Y733" s="5"/>
       <c r="Z733" s="5"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="7"/>
       <c r="B734" s="7"/>
       <c r="C734" s="7"/>
@@ -22092,7 +22114,7 @@
       <c r="Y734" s="5"/>
       <c r="Z734" s="5"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="7"/>
       <c r="B735" s="7"/>
       <c r="C735" s="7"/>
@@ -22120,7 +22142,7 @@
       <c r="Y735" s="5"/>
       <c r="Z735" s="5"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="7"/>
       <c r="B736" s="7"/>
       <c r="C736" s="7"/>
@@ -22148,7 +22170,7 @@
       <c r="Y736" s="5"/>
       <c r="Z736" s="5"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="7"/>
       <c r="B737" s="7"/>
       <c r="C737" s="7"/>
@@ -22176,7 +22198,7 @@
       <c r="Y737" s="5"/>
       <c r="Z737" s="5"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="7"/>
       <c r="B738" s="7"/>
       <c r="C738" s="7"/>
@@ -22204,7 +22226,7 @@
       <c r="Y738" s="5"/>
       <c r="Z738" s="5"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="7"/>
       <c r="B739" s="7"/>
       <c r="C739" s="7"/>
@@ -22232,7 +22254,7 @@
       <c r="Y739" s="5"/>
       <c r="Z739" s="5"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="7"/>
       <c r="B740" s="7"/>
       <c r="C740" s="7"/>
@@ -22260,7 +22282,7 @@
       <c r="Y740" s="5"/>
       <c r="Z740" s="5"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="7"/>
       <c r="B741" s="7"/>
       <c r="C741" s="7"/>
@@ -22288,7 +22310,7 @@
       <c r="Y741" s="5"/>
       <c r="Z741" s="5"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="7"/>
       <c r="B742" s="7"/>
       <c r="C742" s="7"/>
@@ -22316,7 +22338,7 @@
       <c r="Y742" s="5"/>
       <c r="Z742" s="5"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="7"/>
       <c r="B743" s="7"/>
       <c r="C743" s="7"/>
@@ -22344,7 +22366,7 @@
       <c r="Y743" s="5"/>
       <c r="Z743" s="5"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="7"/>
       <c r="B744" s="7"/>
       <c r="C744" s="7"/>
@@ -22372,7 +22394,7 @@
       <c r="Y744" s="5"/>
       <c r="Z744" s="5"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="7"/>
       <c r="B745" s="7"/>
       <c r="C745" s="7"/>
@@ -22400,7 +22422,7 @@
       <c r="Y745" s="5"/>
       <c r="Z745" s="5"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="7"/>
       <c r="B746" s="7"/>
       <c r="C746" s="7"/>
@@ -22428,7 +22450,7 @@
       <c r="Y746" s="5"/>
       <c r="Z746" s="5"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="7"/>
       <c r="B747" s="7"/>
       <c r="C747" s="7"/>
@@ -22456,7 +22478,7 @@
       <c r="Y747" s="5"/>
       <c r="Z747" s="5"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="7"/>
       <c r="B748" s="7"/>
       <c r="C748" s="7"/>
@@ -22484,7 +22506,7 @@
       <c r="Y748" s="5"/>
       <c r="Z748" s="5"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="7"/>
       <c r="B749" s="7"/>
       <c r="C749" s="7"/>
@@ -22512,7 +22534,7 @@
       <c r="Y749" s="5"/>
       <c r="Z749" s="5"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="7"/>
       <c r="B750" s="7"/>
       <c r="C750" s="7"/>
@@ -22540,7 +22562,7 @@
       <c r="Y750" s="5"/>
       <c r="Z750" s="5"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="7"/>
       <c r="B751" s="7"/>
       <c r="C751" s="7"/>
@@ -22568,7 +22590,7 @@
       <c r="Y751" s="5"/>
       <c r="Z751" s="5"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="7"/>
       <c r="B752" s="7"/>
       <c r="C752" s="7"/>
@@ -22596,7 +22618,7 @@
       <c r="Y752" s="5"/>
       <c r="Z752" s="5"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="7"/>
       <c r="B753" s="7"/>
       <c r="C753" s="7"/>
@@ -22624,7 +22646,7 @@
       <c r="Y753" s="5"/>
       <c r="Z753" s="5"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="7"/>
       <c r="B754" s="7"/>
       <c r="C754" s="7"/>
@@ -22652,7 +22674,7 @@
       <c r="Y754" s="5"/>
       <c r="Z754" s="5"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="7"/>
       <c r="B755" s="7"/>
       <c r="C755" s="7"/>
@@ -22680,7 +22702,7 @@
       <c r="Y755" s="5"/>
       <c r="Z755" s="5"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="7"/>
       <c r="B756" s="7"/>
       <c r="C756" s="7"/>
@@ -22708,7 +22730,7 @@
       <c r="Y756" s="5"/>
       <c r="Z756" s="5"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="7"/>
       <c r="B757" s="7"/>
       <c r="C757" s="7"/>
@@ -22736,7 +22758,7 @@
       <c r="Y757" s="5"/>
       <c r="Z757" s="5"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="7"/>
       <c r="B758" s="7"/>
       <c r="C758" s="7"/>
@@ -22764,7 +22786,7 @@
       <c r="Y758" s="5"/>
       <c r="Z758" s="5"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="7"/>
       <c r="B759" s="7"/>
       <c r="C759" s="7"/>
@@ -22792,7 +22814,7 @@
       <c r="Y759" s="5"/>
       <c r="Z759" s="5"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="7"/>
       <c r="B760" s="7"/>
       <c r="C760" s="7"/>
@@ -22820,7 +22842,7 @@
       <c r="Y760" s="5"/>
       <c r="Z760" s="5"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="7"/>
       <c r="B761" s="7"/>
       <c r="C761" s="7"/>
@@ -22848,7 +22870,7 @@
       <c r="Y761" s="5"/>
       <c r="Z761" s="5"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="7"/>
       <c r="B762" s="7"/>
       <c r="C762" s="7"/>
@@ -22876,7 +22898,7 @@
       <c r="Y762" s="5"/>
       <c r="Z762" s="5"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="7"/>
       <c r="B763" s="7"/>
       <c r="C763" s="7"/>
@@ -22904,7 +22926,7 @@
       <c r="Y763" s="5"/>
       <c r="Z763" s="5"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="7"/>
       <c r="B764" s="7"/>
       <c r="C764" s="7"/>
@@ -22932,7 +22954,7 @@
       <c r="Y764" s="5"/>
       <c r="Z764" s="5"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="7"/>
       <c r="B765" s="7"/>
       <c r="C765" s="7"/>
@@ -22960,7 +22982,7 @@
       <c r="Y765" s="5"/>
       <c r="Z765" s="5"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="7"/>
       <c r="B766" s="7"/>
       <c r="C766" s="7"/>
@@ -22988,7 +23010,7 @@
       <c r="Y766" s="5"/>
       <c r="Z766" s="5"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="7"/>
       <c r="B767" s="7"/>
       <c r="C767" s="7"/>
@@ -23016,7 +23038,7 @@
       <c r="Y767" s="5"/>
       <c r="Z767" s="5"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="7"/>
       <c r="B768" s="7"/>
       <c r="C768" s="7"/>
@@ -23044,7 +23066,7 @@
       <c r="Y768" s="5"/>
       <c r="Z768" s="5"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="7"/>
       <c r="B769" s="7"/>
       <c r="C769" s="7"/>
@@ -23072,7 +23094,7 @@
       <c r="Y769" s="5"/>
       <c r="Z769" s="5"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="7"/>
       <c r="B770" s="7"/>
       <c r="C770" s="7"/>
@@ -23100,7 +23122,7 @@
       <c r="Y770" s="5"/>
       <c r="Z770" s="5"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="7"/>
       <c r="B771" s="7"/>
       <c r="C771" s="7"/>
@@ -23128,7 +23150,7 @@
       <c r="Y771" s="5"/>
       <c r="Z771" s="5"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="7"/>
       <c r="B772" s="7"/>
       <c r="C772" s="7"/>
@@ -23156,7 +23178,7 @@
       <c r="Y772" s="5"/>
       <c r="Z772" s="5"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="7"/>
       <c r="B773" s="7"/>
       <c r="C773" s="7"/>
@@ -23184,7 +23206,7 @@
       <c r="Y773" s="5"/>
       <c r="Z773" s="5"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="7"/>
       <c r="B774" s="7"/>
       <c r="C774" s="7"/>
@@ -23212,7 +23234,7 @@
       <c r="Y774" s="5"/>
       <c r="Z774" s="5"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="7"/>
       <c r="B775" s="7"/>
       <c r="C775" s="7"/>
@@ -23240,7 +23262,7 @@
       <c r="Y775" s="5"/>
       <c r="Z775" s="5"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="7"/>
       <c r="B776" s="7"/>
       <c r="C776" s="7"/>
@@ -23268,7 +23290,7 @@
       <c r="Y776" s="5"/>
       <c r="Z776" s="5"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="7"/>
       <c r="B777" s="7"/>
       <c r="C777" s="7"/>
@@ -23296,7 +23318,7 @@
       <c r="Y777" s="5"/>
       <c r="Z777" s="5"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="7"/>
       <c r="B778" s="7"/>
       <c r="C778" s="7"/>
@@ -23324,7 +23346,7 @@
       <c r="Y778" s="5"/>
       <c r="Z778" s="5"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="7"/>
       <c r="B779" s="7"/>
       <c r="C779" s="7"/>
@@ -23352,7 +23374,7 @@
       <c r="Y779" s="5"/>
       <c r="Z779" s="5"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="7"/>
       <c r="B780" s="7"/>
       <c r="C780" s="7"/>
@@ -23380,7 +23402,7 @@
       <c r="Y780" s="5"/>
       <c r="Z780" s="5"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="7"/>
       <c r="B781" s="7"/>
       <c r="C781" s="7"/>
@@ -23408,7 +23430,7 @@
       <c r="Y781" s="5"/>
       <c r="Z781" s="5"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="7"/>
       <c r="B782" s="7"/>
       <c r="C782" s="7"/>
@@ -23436,7 +23458,7 @@
       <c r="Y782" s="5"/>
       <c r="Z782" s="5"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="7"/>
       <c r="B783" s="7"/>
       <c r="C783" s="7"/>
@@ -23464,7 +23486,7 @@
       <c r="Y783" s="5"/>
       <c r="Z783" s="5"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="7"/>
       <c r="B784" s="7"/>
       <c r="C784" s="7"/>
@@ -23492,7 +23514,7 @@
       <c r="Y784" s="5"/>
       <c r="Z784" s="5"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="7"/>
       <c r="B785" s="7"/>
       <c r="C785" s="7"/>
@@ -23520,7 +23542,7 @@
       <c r="Y785" s="5"/>
       <c r="Z785" s="5"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="7"/>
       <c r="B786" s="7"/>
       <c r="C786" s="7"/>
@@ -23548,7 +23570,7 @@
       <c r="Y786" s="5"/>
       <c r="Z786" s="5"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="7"/>
       <c r="B787" s="7"/>
       <c r="C787" s="7"/>
@@ -23576,7 +23598,7 @@
       <c r="Y787" s="5"/>
       <c r="Z787" s="5"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="7"/>
       <c r="B788" s="7"/>
       <c r="C788" s="7"/>
@@ -23604,7 +23626,7 @@
       <c r="Y788" s="5"/>
       <c r="Z788" s="5"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="7"/>
       <c r="B789" s="7"/>
       <c r="C789" s="7"/>
@@ -23632,7 +23654,7 @@
       <c r="Y789" s="5"/>
       <c r="Z789" s="5"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="7"/>
       <c r="B790" s="7"/>
       <c r="C790" s="7"/>
@@ -23660,7 +23682,7 @@
       <c r="Y790" s="5"/>
       <c r="Z790" s="5"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="7"/>
       <c r="B791" s="7"/>
       <c r="C791" s="7"/>
@@ -23688,7 +23710,7 @@
       <c r="Y791" s="5"/>
       <c r="Z791" s="5"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="7"/>
       <c r="B792" s="7"/>
       <c r="C792" s="7"/>
@@ -23716,7 +23738,7 @@
       <c r="Y792" s="5"/>
       <c r="Z792" s="5"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="7"/>
       <c r="B793" s="7"/>
       <c r="C793" s="7"/>
@@ -23744,7 +23766,7 @@
       <c r="Y793" s="5"/>
       <c r="Z793" s="5"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="7"/>
       <c r="B794" s="7"/>
       <c r="C794" s="7"/>
@@ -23772,7 +23794,7 @@
       <c r="Y794" s="5"/>
       <c r="Z794" s="5"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="7"/>
       <c r="B795" s="7"/>
       <c r="C795" s="7"/>
@@ -23800,7 +23822,7 @@
       <c r="Y795" s="5"/>
       <c r="Z795" s="5"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="7"/>
       <c r="B796" s="7"/>
       <c r="C796" s="7"/>
@@ -23828,7 +23850,7 @@
       <c r="Y796" s="5"/>
       <c r="Z796" s="5"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="7"/>
       <c r="B797" s="7"/>
       <c r="C797" s="7"/>
@@ -23856,7 +23878,7 @@
       <c r="Y797" s="5"/>
       <c r="Z797" s="5"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="7"/>
       <c r="B798" s="7"/>
       <c r="C798" s="7"/>
@@ -23884,7 +23906,7 @@
       <c r="Y798" s="5"/>
       <c r="Z798" s="5"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="7"/>
       <c r="B799" s="7"/>
       <c r="C799" s="7"/>
@@ -23912,7 +23934,7 @@
       <c r="Y799" s="5"/>
       <c r="Z799" s="5"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="7"/>
       <c r="B800" s="7"/>
       <c r="C800" s="7"/>
@@ -23940,7 +23962,7 @@
       <c r="Y800" s="5"/>
       <c r="Z800" s="5"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="7"/>
       <c r="B801" s="7"/>
       <c r="C801" s="7"/>
@@ -23968,7 +23990,7 @@
       <c r="Y801" s="5"/>
       <c r="Z801" s="5"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="7"/>
       <c r="B802" s="7"/>
       <c r="C802" s="7"/>
@@ -23996,7 +24018,7 @@
       <c r="Y802" s="5"/>
       <c r="Z802" s="5"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="7"/>
       <c r="B803" s="7"/>
       <c r="C803" s="7"/>
@@ -24024,7 +24046,7 @@
       <c r="Y803" s="5"/>
       <c r="Z803" s="5"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="7"/>
       <c r="B804" s="7"/>
       <c r="C804" s="7"/>
@@ -24052,7 +24074,7 @@
       <c r="Y804" s="5"/>
       <c r="Z804" s="5"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="7"/>
       <c r="B805" s="7"/>
       <c r="C805" s="7"/>
@@ -24080,7 +24102,7 @@
       <c r="Y805" s="5"/>
       <c r="Z805" s="5"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="7"/>
       <c r="B806" s="7"/>
       <c r="C806" s="7"/>
@@ -24108,7 +24130,7 @@
       <c r="Y806" s="5"/>
       <c r="Z806" s="5"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="7"/>
       <c r="B807" s="7"/>
       <c r="C807" s="7"/>
@@ -24136,7 +24158,7 @@
       <c r="Y807" s="5"/>
       <c r="Z807" s="5"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="7"/>
       <c r="B808" s="7"/>
       <c r="C808" s="7"/>
@@ -24164,7 +24186,7 @@
       <c r="Y808" s="5"/>
       <c r="Z808" s="5"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="7"/>
       <c r="B809" s="7"/>
       <c r="C809" s="7"/>
@@ -24192,7 +24214,7 @@
       <c r="Y809" s="5"/>
       <c r="Z809" s="5"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="7"/>
       <c r="B810" s="7"/>
       <c r="C810" s="7"/>
@@ -24220,7 +24242,7 @@
       <c r="Y810" s="5"/>
       <c r="Z810" s="5"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="7"/>
       <c r="B811" s="7"/>
       <c r="C811" s="7"/>
@@ -24248,7 +24270,7 @@
       <c r="Y811" s="5"/>
       <c r="Z811" s="5"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="7"/>
       <c r="B812" s="7"/>
       <c r="C812" s="7"/>
@@ -24276,7 +24298,7 @@
       <c r="Y812" s="5"/>
       <c r="Z812" s="5"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="7"/>
       <c r="B813" s="7"/>
       <c r="C813" s="7"/>
@@ -24304,7 +24326,7 @@
       <c r="Y813" s="5"/>
       <c r="Z813" s="5"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="7"/>
       <c r="B814" s="7"/>
       <c r="C814" s="7"/>
@@ -24332,7 +24354,7 @@
       <c r="Y814" s="5"/>
       <c r="Z814" s="5"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="7"/>
       <c r="B815" s="7"/>
       <c r="C815" s="7"/>
@@ -24360,7 +24382,7 @@
       <c r="Y815" s="5"/>
       <c r="Z815" s="5"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="7"/>
       <c r="B816" s="7"/>
       <c r="C816" s="7"/>
@@ -24388,7 +24410,7 @@
       <c r="Y816" s="5"/>
       <c r="Z816" s="5"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="7"/>
       <c r="B817" s="7"/>
       <c r="C817" s="7"/>
@@ -24416,7 +24438,7 @@
       <c r="Y817" s="5"/>
       <c r="Z817" s="5"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="7"/>
       <c r="B818" s="7"/>
       <c r="C818" s="7"/>
@@ -24444,7 +24466,7 @@
       <c r="Y818" s="5"/>
       <c r="Z818" s="5"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="7"/>
       <c r="B819" s="7"/>
       <c r="C819" s="7"/>
@@ -24472,7 +24494,7 @@
       <c r="Y819" s="5"/>
       <c r="Z819" s="5"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="7"/>
       <c r="B820" s="7"/>
       <c r="C820" s="7"/>
@@ -24500,7 +24522,7 @@
       <c r="Y820" s="5"/>
       <c r="Z820" s="5"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="7"/>
       <c r="B821" s="7"/>
       <c r="C821" s="7"/>
@@ -24528,7 +24550,7 @@
       <c r="Y821" s="5"/>
       <c r="Z821" s="5"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="7"/>
       <c r="B822" s="7"/>
       <c r="C822" s="7"/>
@@ -24556,7 +24578,7 @@
       <c r="Y822" s="5"/>
       <c r="Z822" s="5"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="7"/>
       <c r="B823" s="7"/>
       <c r="C823" s="7"/>
@@ -24584,7 +24606,7 @@
       <c r="Y823" s="5"/>
       <c r="Z823" s="5"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="7"/>
       <c r="B824" s="7"/>
       <c r="C824" s="7"/>
@@ -24612,7 +24634,7 @@
       <c r="Y824" s="5"/>
       <c r="Z824" s="5"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="7"/>
       <c r="B825" s="7"/>
       <c r="C825" s="7"/>
@@ -24640,7 +24662,7 @@
       <c r="Y825" s="5"/>
       <c r="Z825" s="5"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="7"/>
       <c r="B826" s="7"/>
       <c r="C826" s="7"/>
@@ -24668,7 +24690,7 @@
       <c r="Y826" s="5"/>
       <c r="Z826" s="5"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="7"/>
       <c r="B827" s="7"/>
       <c r="C827" s="7"/>
@@ -24696,7 +24718,7 @@
       <c r="Y827" s="5"/>
       <c r="Z827" s="5"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="7"/>
       <c r="B828" s="7"/>
       <c r="C828" s="7"/>
@@ -24724,7 +24746,7 @@
       <c r="Y828" s="5"/>
       <c r="Z828" s="5"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="7"/>
       <c r="B829" s="7"/>
       <c r="C829" s="7"/>
@@ -24752,7 +24774,7 @@
       <c r="Y829" s="5"/>
       <c r="Z829" s="5"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="7"/>
       <c r="B830" s="7"/>
       <c r="C830" s="7"/>
@@ -24780,7 +24802,7 @@
       <c r="Y830" s="5"/>
       <c r="Z830" s="5"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="7"/>
       <c r="B831" s="7"/>
       <c r="C831" s="7"/>
@@ -24808,7 +24830,7 @@
       <c r="Y831" s="5"/>
       <c r="Z831" s="5"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="7"/>
       <c r="B832" s="7"/>
       <c r="C832" s="7"/>
@@ -24836,7 +24858,7 @@
       <c r="Y832" s="5"/>
       <c r="Z832" s="5"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="7"/>
       <c r="B833" s="7"/>
       <c r="C833" s="7"/>
@@ -24864,7 +24886,7 @@
       <c r="Y833" s="5"/>
       <c r="Z833" s="5"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="7"/>
       <c r="B834" s="7"/>
       <c r="C834" s="7"/>
@@ -24892,7 +24914,7 @@
       <c r="Y834" s="5"/>
       <c r="Z834" s="5"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="7"/>
       <c r="B835" s="7"/>
       <c r="C835" s="7"/>
@@ -24920,7 +24942,7 @@
       <c r="Y835" s="5"/>
       <c r="Z835" s="5"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="7"/>
       <c r="B836" s="7"/>
       <c r="C836" s="7"/>
@@ -24948,7 +24970,7 @@
       <c r="Y836" s="5"/>
       <c r="Z836" s="5"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="7"/>
       <c r="B837" s="7"/>
       <c r="C837" s="7"/>
@@ -24976,7 +24998,7 @@
       <c r="Y837" s="5"/>
       <c r="Z837" s="5"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="7"/>
       <c r="B838" s="7"/>
       <c r="C838" s="7"/>
@@ -25004,7 +25026,7 @@
       <c r="Y838" s="5"/>
       <c r="Z838" s="5"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="7"/>
       <c r="B839" s="7"/>
       <c r="C839" s="7"/>
@@ -25032,7 +25054,7 @@
       <c r="Y839" s="5"/>
       <c r="Z839" s="5"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="7"/>
       <c r="B840" s="7"/>
       <c r="C840" s="7"/>
@@ -25060,7 +25082,7 @@
       <c r="Y840" s="5"/>
       <c r="Z840" s="5"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="7"/>
       <c r="B841" s="7"/>
       <c r="C841" s="7"/>
@@ -25088,7 +25110,7 @@
       <c r="Y841" s="5"/>
       <c r="Z841" s="5"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="7"/>
       <c r="B842" s="7"/>
       <c r="C842" s="7"/>
@@ -25116,7 +25138,7 @@
       <c r="Y842" s="5"/>
       <c r="Z842" s="5"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="7"/>
       <c r="B843" s="7"/>
       <c r="C843" s="7"/>
@@ -25144,7 +25166,7 @@
       <c r="Y843" s="5"/>
       <c r="Z843" s="5"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="7"/>
       <c r="B844" s="7"/>
       <c r="C844" s="7"/>
@@ -25172,7 +25194,7 @@
       <c r="Y844" s="5"/>
       <c r="Z844" s="5"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="7"/>
       <c r="B845" s="7"/>
       <c r="C845" s="7"/>
@@ -25200,7 +25222,7 @@
       <c r="Y845" s="5"/>
       <c r="Z845" s="5"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="7"/>
       <c r="B846" s="7"/>
       <c r="C846" s="7"/>
@@ -25228,7 +25250,7 @@
       <c r="Y846" s="5"/>
       <c r="Z846" s="5"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="7"/>
       <c r="B847" s="7"/>
       <c r="C847" s="7"/>
@@ -25256,7 +25278,7 @@
       <c r="Y847" s="5"/>
       <c r="Z847" s="5"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="7"/>
       <c r="B848" s="7"/>
       <c r="C848" s="7"/>
@@ -25284,7 +25306,7 @@
       <c r="Y848" s="5"/>
       <c r="Z848" s="5"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="7"/>
       <c r="B849" s="7"/>
       <c r="C849" s="7"/>
@@ -25312,7 +25334,7 @@
       <c r="Y849" s="5"/>
       <c r="Z849" s="5"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="7"/>
       <c r="B850" s="7"/>
       <c r="C850" s="7"/>
@@ -25340,7 +25362,7 @@
       <c r="Y850" s="5"/>
       <c r="Z850" s="5"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="7"/>
       <c r="B851" s="7"/>
       <c r="C851" s="7"/>
@@ -25368,7 +25390,7 @@
       <c r="Y851" s="5"/>
       <c r="Z851" s="5"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="7"/>
       <c r="B852" s="7"/>
       <c r="C852" s="7"/>
@@ -25396,7 +25418,7 @@
       <c r="Y852" s="5"/>
       <c r="Z852" s="5"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="7"/>
       <c r="B853" s="7"/>
       <c r="C853" s="7"/>
@@ -25424,7 +25446,7 @@
       <c r="Y853" s="5"/>
       <c r="Z853" s="5"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="7"/>
       <c r="B854" s="7"/>
       <c r="C854" s="7"/>
@@ -25452,7 +25474,7 @@
       <c r="Y854" s="5"/>
       <c r="Z854" s="5"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="7"/>
       <c r="B855" s="7"/>
       <c r="C855" s="7"/>
@@ -25480,7 +25502,7 @@
       <c r="Y855" s="5"/>
       <c r="Z855" s="5"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="7"/>
       <c r="B856" s="7"/>
       <c r="C856" s="7"/>
@@ -25508,7 +25530,7 @@
       <c r="Y856" s="5"/>
       <c r="Z856" s="5"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="7"/>
       <c r="B857" s="7"/>
       <c r="C857" s="7"/>
@@ -25536,7 +25558,7 @@
       <c r="Y857" s="5"/>
       <c r="Z857" s="5"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="7"/>
       <c r="B858" s="7"/>
       <c r="C858" s="7"/>
@@ -25564,7 +25586,7 @@
       <c r="Y858" s="5"/>
       <c r="Z858" s="5"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="7"/>
       <c r="B859" s="7"/>
       <c r="C859" s="7"/>
@@ -25592,7 +25614,7 @@
       <c r="Y859" s="5"/>
       <c r="Z859" s="5"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="7"/>
       <c r="B860" s="7"/>
       <c r="C860" s="7"/>
@@ -25620,7 +25642,7 @@
       <c r="Y860" s="5"/>
       <c r="Z860" s="5"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="7"/>
       <c r="B861" s="7"/>
       <c r="C861" s="7"/>
@@ -25648,7 +25670,7 @@
       <c r="Y861" s="5"/>
       <c r="Z861" s="5"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="7"/>
       <c r="B862" s="7"/>
       <c r="C862" s="7"/>
@@ -25676,7 +25698,7 @@
       <c r="Y862" s="5"/>
       <c r="Z862" s="5"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="7"/>
       <c r="B863" s="7"/>
       <c r="C863" s="7"/>
@@ -25704,7 +25726,7 @@
       <c r="Y863" s="5"/>
       <c r="Z863" s="5"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="7"/>
       <c r="B864" s="7"/>
       <c r="C864" s="7"/>
@@ -25732,7 +25754,7 @@
       <c r="Y864" s="5"/>
       <c r="Z864" s="5"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="7"/>
       <c r="B865" s="7"/>
       <c r="C865" s="7"/>
@@ -25760,7 +25782,7 @@
       <c r="Y865" s="5"/>
       <c r="Z865" s="5"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="7"/>
       <c r="B866" s="7"/>
       <c r="C866" s="7"/>
@@ -25788,7 +25810,7 @@
       <c r="Y866" s="5"/>
       <c r="Z866" s="5"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="7"/>
       <c r="B867" s="7"/>
       <c r="C867" s="7"/>
@@ -25816,7 +25838,7 @@
       <c r="Y867" s="5"/>
       <c r="Z867" s="5"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="7"/>
       <c r="B868" s="7"/>
       <c r="C868" s="7"/>
@@ -25844,7 +25866,7 @@
       <c r="Y868" s="5"/>
       <c r="Z868" s="5"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="7"/>
       <c r="B869" s="7"/>
       <c r="C869" s="7"/>
@@ -25872,7 +25894,7 @@
       <c r="Y869" s="5"/>
       <c r="Z869" s="5"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="7"/>
       <c r="B870" s="7"/>
       <c r="C870" s="7"/>
@@ -25900,7 +25922,7 @@
       <c r="Y870" s="5"/>
       <c r="Z870" s="5"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="7"/>
       <c r="B871" s="7"/>
       <c r="C871" s="7"/>
@@ -25928,7 +25950,7 @@
       <c r="Y871" s="5"/>
       <c r="Z871" s="5"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="7"/>
       <c r="B872" s="7"/>
       <c r="C872" s="7"/>
@@ -25956,7 +25978,7 @@
       <c r="Y872" s="5"/>
       <c r="Z872" s="5"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="7"/>
       <c r="B873" s="7"/>
       <c r="C873" s="7"/>
@@ -25984,7 +26006,7 @@
       <c r="Y873" s="5"/>
       <c r="Z873" s="5"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="7"/>
       <c r="B874" s="7"/>
       <c r="C874" s="7"/>
@@ -26012,7 +26034,7 @@
       <c r="Y874" s="5"/>
       <c r="Z874" s="5"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="7"/>
       <c r="B875" s="7"/>
       <c r="C875" s="7"/>
@@ -26040,7 +26062,7 @@
       <c r="Y875" s="5"/>
       <c r="Z875" s="5"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="7"/>
       <c r="B876" s="7"/>
       <c r="C876" s="7"/>
@@ -26068,7 +26090,7 @@
       <c r="Y876" s="5"/>
       <c r="Z876" s="5"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="7"/>
       <c r="B877" s="7"/>
       <c r="C877" s="7"/>
@@ -26096,7 +26118,7 @@
       <c r="Y877" s="5"/>
       <c r="Z877" s="5"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="7"/>
       <c r="B878" s="7"/>
       <c r="C878" s="7"/>
@@ -26124,7 +26146,7 @@
       <c r="Y878" s="5"/>
       <c r="Z878" s="5"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="7"/>
       <c r="B879" s="7"/>
       <c r="C879" s="7"/>
@@ -26152,7 +26174,7 @@
       <c r="Y879" s="5"/>
       <c r="Z879" s="5"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="7"/>
       <c r="B880" s="7"/>
       <c r="C880" s="7"/>
@@ -26180,7 +26202,7 @@
       <c r="Y880" s="5"/>
       <c r="Z880" s="5"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="7"/>
       <c r="B881" s="7"/>
       <c r="C881" s="7"/>
@@ -26208,7 +26230,7 @@
       <c r="Y881" s="5"/>
       <c r="Z881" s="5"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="7"/>
       <c r="B882" s="7"/>
       <c r="C882" s="7"/>
@@ -26236,7 +26258,7 @@
       <c r="Y882" s="5"/>
       <c r="Z882" s="5"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="7"/>
       <c r="B883" s="7"/>
       <c r="C883" s="7"/>
@@ -26264,7 +26286,7 @@
       <c r="Y883" s="5"/>
       <c r="Z883" s="5"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="7"/>
       <c r="B884" s="7"/>
       <c r="C884" s="7"/>
@@ -26292,7 +26314,7 @@
       <c r="Y884" s="5"/>
       <c r="Z884" s="5"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="7"/>
       <c r="B885" s="7"/>
       <c r="C885" s="7"/>
@@ -26320,7 +26342,7 @@
       <c r="Y885" s="5"/>
       <c r="Z885" s="5"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="7"/>
       <c r="B886" s="7"/>
       <c r="C886" s="7"/>
@@ -26348,7 +26370,7 @@
       <c r="Y886" s="5"/>
       <c r="Z886" s="5"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="7"/>
       <c r="B887" s="7"/>
       <c r="C887" s="7"/>
@@ -26376,7 +26398,7 @@
       <c r="Y887" s="5"/>
       <c r="Z887" s="5"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="7"/>
       <c r="B888" s="7"/>
       <c r="C888" s="7"/>
@@ -26404,7 +26426,7 @@
       <c r="Y888" s="5"/>
       <c r="Z888" s="5"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="7"/>
       <c r="B889" s="7"/>
       <c r="C889" s="7"/>
@@ -26432,7 +26454,7 @@
       <c r="Y889" s="5"/>
       <c r="Z889" s="5"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="7"/>
       <c r="B890" s="7"/>
       <c r="C890" s="7"/>
@@ -26460,7 +26482,7 @@
       <c r="Y890" s="5"/>
       <c r="Z890" s="5"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="7"/>
       <c r="B891" s="7"/>
       <c r="C891" s="7"/>
@@ -26488,7 +26510,7 @@
       <c r="Y891" s="5"/>
       <c r="Z891" s="5"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="7"/>
       <c r="B892" s="7"/>
       <c r="C892" s="7"/>
@@ -26516,7 +26538,7 @@
       <c r="Y892" s="5"/>
       <c r="Z892" s="5"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="7"/>
       <c r="B893" s="7"/>
       <c r="C893" s="7"/>
@@ -26544,7 +26566,7 @@
       <c r="Y893" s="5"/>
       <c r="Z893" s="5"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="7"/>
       <c r="B894" s="7"/>
       <c r="C894" s="7"/>
@@ -26572,7 +26594,7 @@
       <c r="Y894" s="5"/>
       <c r="Z894" s="5"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="7"/>
       <c r="B895" s="7"/>
       <c r="C895" s="7"/>
@@ -26600,7 +26622,7 @@
       <c r="Y895" s="5"/>
       <c r="Z895" s="5"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="7"/>
       <c r="B896" s="7"/>
       <c r="C896" s="7"/>
@@ -26628,7 +26650,7 @@
       <c r="Y896" s="5"/>
       <c r="Z896" s="5"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="7"/>
       <c r="B897" s="7"/>
       <c r="C897" s="7"/>
@@ -26656,7 +26678,7 @@
       <c r="Y897" s="5"/>
       <c r="Z897" s="5"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="7"/>
       <c r="B898" s="7"/>
       <c r="C898" s="7"/>
@@ -26684,7 +26706,7 @@
       <c r="Y898" s="5"/>
       <c r="Z898" s="5"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="7"/>
       <c r="B899" s="7"/>
       <c r="C899" s="7"/>
@@ -26712,7 +26734,7 @@
       <c r="Y899" s="5"/>
       <c r="Z899" s="5"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="7"/>
       <c r="B900" s="7"/>
       <c r="C900" s="7"/>
@@ -26740,7 +26762,7 @@
       <c r="Y900" s="5"/>
       <c r="Z900" s="5"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="7"/>
       <c r="B901" s="7"/>
       <c r="C901" s="7"/>
@@ -26768,7 +26790,7 @@
       <c r="Y901" s="5"/>
       <c r="Z901" s="5"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="7"/>
       <c r="B902" s="7"/>
       <c r="C902" s="7"/>
@@ -26796,7 +26818,7 @@
       <c r="Y902" s="5"/>
       <c r="Z902" s="5"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="7"/>
       <c r="B903" s="7"/>
       <c r="C903" s="7"/>
@@ -26824,7 +26846,7 @@
       <c r="Y903" s="5"/>
       <c r="Z903" s="5"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="7"/>
       <c r="B904" s="7"/>
       <c r="C904" s="7"/>
@@ -26852,7 +26874,7 @@
       <c r="Y904" s="5"/>
       <c r="Z904" s="5"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="7"/>
       <c r="B905" s="7"/>
       <c r="C905" s="7"/>
@@ -26880,7 +26902,7 @@
       <c r="Y905" s="5"/>
       <c r="Z905" s="5"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="7"/>
       <c r="B906" s="7"/>
       <c r="C906" s="7"/>
@@ -26908,7 +26930,7 @@
       <c r="Y906" s="5"/>
       <c r="Z906" s="5"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="7"/>
       <c r="B907" s="7"/>
       <c r="C907" s="7"/>
@@ -26936,7 +26958,7 @@
       <c r="Y907" s="5"/>
       <c r="Z907" s="5"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="7"/>
       <c r="B908" s="7"/>
       <c r="C908" s="7"/>
@@ -26964,7 +26986,7 @@
       <c r="Y908" s="5"/>
       <c r="Z908" s="5"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="7"/>
       <c r="B909" s="7"/>
       <c r="C909" s="7"/>
@@ -26992,7 +27014,7 @@
       <c r="Y909" s="5"/>
       <c r="Z909" s="5"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="7"/>
       <c r="B910" s="7"/>
       <c r="C910" s="7"/>
@@ -27020,7 +27042,7 @@
       <c r="Y910" s="5"/>
       <c r="Z910" s="5"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="7"/>
       <c r="B911" s="7"/>
       <c r="C911" s="7"/>
@@ -27048,7 +27070,7 @@
       <c r="Y911" s="5"/>
       <c r="Z911" s="5"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="7"/>
       <c r="B912" s="7"/>
       <c r="C912" s="7"/>
@@ -27076,7 +27098,7 @@
       <c r="Y912" s="5"/>
       <c r="Z912" s="5"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="7"/>
       <c r="B913" s="7"/>
       <c r="C913" s="7"/>
@@ -27104,7 +27126,7 @@
       <c r="Y913" s="5"/>
       <c r="Z913" s="5"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="7"/>
       <c r="B914" s="7"/>
       <c r="C914" s="7"/>
@@ -27132,7 +27154,7 @@
       <c r="Y914" s="5"/>
       <c r="Z914" s="5"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="7"/>
       <c r="B915" s="7"/>
       <c r="C915" s="7"/>
@@ -27160,7 +27182,7 @@
       <c r="Y915" s="5"/>
       <c r="Z915" s="5"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="7"/>
       <c r="B916" s="7"/>
       <c r="C916" s="7"/>
@@ -27188,7 +27210,7 @@
       <c r="Y916" s="5"/>
       <c r="Z916" s="5"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="7"/>
       <c r="B917" s="7"/>
       <c r="C917" s="7"/>
@@ -27216,7 +27238,7 @@
       <c r="Y917" s="5"/>
       <c r="Z917" s="5"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="7"/>
       <c r="B918" s="7"/>
       <c r="C918" s="7"/>
@@ -27244,7 +27266,7 @@
       <c r="Y918" s="5"/>
       <c r="Z918" s="5"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="7"/>
       <c r="B919" s="7"/>
       <c r="C919" s="7"/>
@@ -27272,7 +27294,7 @@
       <c r="Y919" s="5"/>
       <c r="Z919" s="5"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="7"/>
       <c r="B920" s="7"/>
       <c r="C920" s="7"/>
@@ -27300,7 +27322,7 @@
       <c r="Y920" s="5"/>
       <c r="Z920" s="5"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="7"/>
       <c r="B921" s="7"/>
       <c r="C921" s="7"/>
@@ -27328,7 +27350,7 @@
       <c r="Y921" s="5"/>
       <c r="Z921" s="5"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="7"/>
       <c r="B922" s="7"/>
       <c r="C922" s="7"/>
@@ -27356,7 +27378,7 @@
       <c r="Y922" s="5"/>
       <c r="Z922" s="5"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="7"/>
       <c r="B923" s="7"/>
       <c r="C923" s="7"/>
@@ -27384,7 +27406,7 @@
       <c r="Y923" s="5"/>
       <c r="Z923" s="5"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="7"/>
       <c r="B924" s="7"/>
       <c r="C924" s="7"/>
@@ -27412,7 +27434,7 @@
       <c r="Y924" s="5"/>
       <c r="Z924" s="5"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="7"/>
       <c r="B925" s="7"/>
       <c r="C925" s="7"/>
@@ -27440,7 +27462,7 @@
       <c r="Y925" s="5"/>
       <c r="Z925" s="5"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="7"/>
       <c r="B926" s="7"/>
       <c r="C926" s="7"/>
@@ -27468,7 +27490,7 @@
       <c r="Y926" s="5"/>
       <c r="Z926" s="5"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="7"/>
       <c r="B927" s="7"/>
       <c r="C927" s="7"/>
@@ -27496,7 +27518,7 @@
       <c r="Y927" s="5"/>
       <c r="Z927" s="5"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="7"/>
       <c r="B928" s="7"/>
       <c r="C928" s="7"/>
@@ -27524,7 +27546,7 @@
       <c r="Y928" s="5"/>
       <c r="Z928" s="5"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="7"/>
       <c r="B929" s="7"/>
       <c r="C929" s="7"/>
@@ -27552,7 +27574,7 @@
       <c r="Y929" s="5"/>
       <c r="Z929" s="5"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="7"/>
       <c r="B930" s="7"/>
       <c r="C930" s="7"/>
@@ -27580,7 +27602,7 @@
       <c r="Y930" s="5"/>
       <c r="Z930" s="5"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="7"/>
       <c r="B931" s="7"/>
       <c r="C931" s="7"/>
@@ -27608,7 +27630,7 @@
       <c r="Y931" s="5"/>
       <c r="Z931" s="5"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="7"/>
       <c r="B932" s="7"/>
       <c r="C932" s="7"/>
@@ -27636,7 +27658,7 @@
       <c r="Y932" s="5"/>
       <c r="Z932" s="5"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="7"/>
       <c r="B933" s="7"/>
       <c r="C933" s="7"/>
@@ -27664,7 +27686,7 @@
       <c r="Y933" s="5"/>
       <c r="Z933" s="5"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="7"/>
       <c r="B934" s="7"/>
       <c r="C934" s="7"/>
@@ -27692,7 +27714,7 @@
       <c r="Y934" s="5"/>
       <c r="Z934" s="5"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="7"/>
       <c r="B935" s="7"/>
       <c r="C935" s="7"/>
@@ -27720,7 +27742,7 @@
       <c r="Y935" s="5"/>
       <c r="Z935" s="5"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="7"/>
       <c r="B936" s="7"/>
       <c r="C936" s="7"/>
@@ -27748,7 +27770,7 @@
       <c r="Y936" s="5"/>
       <c r="Z936" s="5"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="7"/>
       <c r="B937" s="7"/>
       <c r="C937" s="7"/>
@@ -27776,7 +27798,7 @@
       <c r="Y937" s="5"/>
       <c r="Z937" s="5"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="7"/>
       <c r="B938" s="7"/>
       <c r="C938" s="7"/>
@@ -27804,7 +27826,7 @@
       <c r="Y938" s="5"/>
       <c r="Z938" s="5"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="7"/>
       <c r="B939" s="7"/>
       <c r="C939" s="7"/>
@@ -27832,7 +27854,7 @@
       <c r="Y939" s="5"/>
       <c r="Z939" s="5"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="7"/>
       <c r="B940" s="7"/>
       <c r="C940" s="7"/>
@@ -27860,7 +27882,7 @@
       <c r="Y940" s="5"/>
       <c r="Z940" s="5"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="7"/>
       <c r="B941" s="7"/>
       <c r="C941" s="7"/>
@@ -27888,7 +27910,7 @@
       <c r="Y941" s="5"/>
       <c r="Z941" s="5"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="7"/>
       <c r="B942" s="7"/>
       <c r="C942" s="7"/>
@@ -27916,7 +27938,7 @@
       <c r="Y942" s="5"/>
       <c r="Z942" s="5"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="7"/>
       <c r="B943" s="7"/>
       <c r="C943" s="7"/>
@@ -27944,7 +27966,7 @@
       <c r="Y943" s="5"/>
       <c r="Z943" s="5"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="7"/>
       <c r="B944" s="7"/>
       <c r="C944" s="7"/>
@@ -27972,7 +27994,7 @@
       <c r="Y944" s="5"/>
       <c r="Z944" s="5"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="7"/>
       <c r="B945" s="7"/>
       <c r="C945" s="7"/>
@@ -28000,7 +28022,7 @@
       <c r="Y945" s="5"/>
       <c r="Z945" s="5"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="7"/>
       <c r="B946" s="7"/>
       <c r="C946" s="7"/>
@@ -28028,7 +28050,7 @@
       <c r="Y946" s="5"/>
       <c r="Z946" s="5"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="7"/>
       <c r="B947" s="7"/>
       <c r="C947" s="7"/>
@@ -28056,7 +28078,7 @@
       <c r="Y947" s="5"/>
       <c r="Z947" s="5"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="7"/>
       <c r="B948" s="7"/>
       <c r="C948" s="7"/>
@@ -28084,7 +28106,7 @@
       <c r="Y948" s="5"/>
       <c r="Z948" s="5"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="7"/>
       <c r="B949" s="7"/>
       <c r="C949" s="7"/>
@@ -28112,7 +28134,7 @@
       <c r="Y949" s="5"/>
       <c r="Z949" s="5"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="7"/>
       <c r="B950" s="7"/>
       <c r="C950" s="7"/>
@@ -28140,7 +28162,7 @@
       <c r="Y950" s="5"/>
       <c r="Z950" s="5"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="7"/>
       <c r="B951" s="7"/>
       <c r="C951" s="7"/>
@@ -28168,7 +28190,7 @@
       <c r="Y951" s="5"/>
       <c r="Z951" s="5"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="7"/>
       <c r="B952" s="7"/>
       <c r="C952" s="7"/>
@@ -28196,7 +28218,7 @@
       <c r="Y952" s="5"/>
       <c r="Z952" s="5"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="7"/>
       <c r="B953" s="7"/>
       <c r="C953" s="7"/>
@@ -28224,7 +28246,7 @@
       <c r="Y953" s="5"/>
       <c r="Z953" s="5"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="7"/>
       <c r="B954" s="7"/>
       <c r="C954" s="7"/>
@@ -28252,7 +28274,7 @@
       <c r="Y954" s="5"/>
       <c r="Z954" s="5"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="7"/>
       <c r="B955" s="7"/>
       <c r="C955" s="7"/>
@@ -28280,7 +28302,7 @@
       <c r="Y955" s="5"/>
       <c r="Z955" s="5"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="7"/>
       <c r="B956" s="7"/>
       <c r="C956" s="7"/>
@@ -28308,7 +28330,7 @@
       <c r="Y956" s="5"/>
       <c r="Z956" s="5"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="7"/>
       <c r="B957" s="7"/>
       <c r="C957" s="7"/>
@@ -28336,7 +28358,7 @@
       <c r="Y957" s="5"/>
       <c r="Z957" s="5"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="7"/>
       <c r="B958" s="7"/>
       <c r="C958" s="7"/>
@@ -28364,7 +28386,7 @@
       <c r="Y958" s="5"/>
       <c r="Z958" s="5"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="7"/>
       <c r="B959" s="7"/>
       <c r="C959" s="7"/>
@@ -28392,7 +28414,7 @@
       <c r="Y959" s="5"/>
       <c r="Z959" s="5"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="7"/>
       <c r="B960" s="7"/>
       <c r="C960" s="7"/>
@@ -28420,7 +28442,7 @@
       <c r="Y960" s="5"/>
       <c r="Z960" s="5"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="7"/>
       <c r="B961" s="7"/>
       <c r="C961" s="7"/>
@@ -28448,7 +28470,7 @@
       <c r="Y961" s="5"/>
       <c r="Z961" s="5"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="7"/>
       <c r="B962" s="7"/>
       <c r="C962" s="7"/>
@@ -28476,7 +28498,7 @@
       <c r="Y962" s="5"/>
       <c r="Z962" s="5"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="7"/>
       <c r="B963" s="7"/>
       <c r="C963" s="7"/>
@@ -28504,7 +28526,7 @@
       <c r="Y963" s="5"/>
       <c r="Z963" s="5"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="7"/>
       <c r="B964" s="7"/>
       <c r="C964" s="7"/>
@@ -28532,7 +28554,7 @@
       <c r="Y964" s="5"/>
       <c r="Z964" s="5"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="7"/>
       <c r="B965" s="7"/>
       <c r="C965" s="7"/>
@@ -28560,7 +28582,7 @@
       <c r="Y965" s="5"/>
       <c r="Z965" s="5"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="7"/>
       <c r="B966" s="7"/>
       <c r="C966" s="7"/>
@@ -28588,7 +28610,7 @@
       <c r="Y966" s="5"/>
       <c r="Z966" s="5"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="7"/>
       <c r="B967" s="7"/>
       <c r="C967" s="7"/>
@@ -28616,7 +28638,7 @@
       <c r="Y967" s="5"/>
       <c r="Z967" s="5"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="7"/>
       <c r="B968" s="7"/>
       <c r="C968" s="7"/>
@@ -28644,7 +28666,7 @@
       <c r="Y968" s="5"/>
       <c r="Z968" s="5"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="7"/>
       <c r="B969" s="7"/>
       <c r="C969" s="7"/>
@@ -28672,7 +28694,7 @@
       <c r="Y969" s="5"/>
       <c r="Z969" s="5"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="7"/>
       <c r="B970" s="7"/>
       <c r="C970" s="7"/>
@@ -28700,7 +28722,7 @@
       <c r="Y970" s="5"/>
       <c r="Z970" s="5"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="7"/>
       <c r="B971" s="7"/>
       <c r="C971" s="7"/>
@@ -28728,7 +28750,7 @@
       <c r="Y971" s="5"/>
       <c r="Z971" s="5"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="7"/>
       <c r="B972" s="7"/>
       <c r="C972" s="7"/>
@@ -28756,7 +28778,7 @@
       <c r="Y972" s="5"/>
       <c r="Z972" s="5"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="7"/>
       <c r="B973" s="7"/>
       <c r="C973" s="7"/>
@@ -28784,7 +28806,7 @@
       <c r="Y973" s="5"/>
       <c r="Z973" s="5"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="7"/>
       <c r="B974" s="7"/>
       <c r="C974" s="7"/>
@@ -28812,7 +28834,7 @@
       <c r="Y974" s="5"/>
       <c r="Z974" s="5"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="7"/>
       <c r="B975" s="7"/>
       <c r="C975" s="7"/>
@@ -28840,7 +28862,7 @@
       <c r="Y975" s="5"/>
       <c r="Z975" s="5"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="7"/>
       <c r="B976" s="7"/>
       <c r="C976" s="7"/>
@@ -28868,7 +28890,7 @@
       <c r="Y976" s="5"/>
       <c r="Z976" s="5"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="7"/>
       <c r="B977" s="7"/>
       <c r="C977" s="7"/>
@@ -28896,7 +28918,7 @@
       <c r="Y977" s="5"/>
       <c r="Z977" s="5"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="7"/>
       <c r="B978" s="7"/>
       <c r="C978" s="7"/>
@@ -28924,7 +28946,7 @@
       <c r="Y978" s="5"/>
       <c r="Z978" s="5"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="7"/>
       <c r="B979" s="7"/>
       <c r="C979" s="7"/>
@@ -28952,7 +28974,7 @@
       <c r="Y979" s="5"/>
       <c r="Z979" s="5"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="7"/>
       <c r="B980" s="7"/>
       <c r="C980" s="7"/>
@@ -28980,7 +29002,7 @@
       <c r="Y980" s="5"/>
       <c r="Z980" s="5"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="7"/>
       <c r="B981" s="7"/>
       <c r="C981" s="7"/>
@@ -29008,7 +29030,7 @@
       <c r="Y981" s="5"/>
       <c r="Z981" s="5"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="7"/>
       <c r="B982" s="7"/>
       <c r="C982" s="7"/>
@@ -29036,7 +29058,7 @@
       <c r="Y982" s="5"/>
       <c r="Z982" s="5"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="7"/>
       <c r="B983" s="7"/>
       <c r="C983" s="7"/>
@@ -29064,7 +29086,7 @@
       <c r="Y983" s="5"/>
       <c r="Z983" s="5"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="7"/>
       <c r="B984" s="7"/>
       <c r="C984" s="7"/>
@@ -29092,7 +29114,7 @@
       <c r="Y984" s="5"/>
       <c r="Z984" s="5"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="7"/>
       <c r="B985" s="7"/>
       <c r="C985" s="7"/>
@@ -29120,7 +29142,7 @@
       <c r="Y985" s="5"/>
       <c r="Z985" s="5"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="7"/>
       <c r="B986" s="7"/>
       <c r="C986" s="7"/>
@@ -29148,7 +29170,7 @@
       <c r="Y986" s="5"/>
       <c r="Z986" s="5"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="7"/>
       <c r="B987" s="7"/>
       <c r="C987" s="7"/>
@@ -29176,7 +29198,7 @@
       <c r="Y987" s="5"/>
       <c r="Z987" s="5"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="7"/>
       <c r="B988" s="7"/>
       <c r="C988" s="7"/>
@@ -29204,7 +29226,7 @@
       <c r="Y988" s="5"/>
       <c r="Z988" s="5"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="7"/>
       <c r="B989" s="7"/>
       <c r="C989" s="7"/>
@@ -29232,7 +29254,7 @@
       <c r="Y989" s="5"/>
       <c r="Z989" s="5"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="7"/>
       <c r="B990" s="7"/>
       <c r="C990" s="7"/>
@@ -29260,7 +29282,7 @@
       <c r="Y990" s="5"/>
       <c r="Z990" s="5"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="7"/>
       <c r="B991" s="7"/>
       <c r="C991" s="7"/>
@@ -29288,7 +29310,7 @@
       <c r="Y991" s="5"/>
       <c r="Z991" s="5"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="7"/>
       <c r="B992" s="7"/>
       <c r="C992" s="7"/>
@@ -29316,7 +29338,7 @@
       <c r="Y992" s="5"/>
       <c r="Z992" s="5"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="7"/>
       <c r="B993" s="7"/>
       <c r="C993" s="7"/>
@@ -29344,7 +29366,7 @@
       <c r="Y993" s="5"/>
       <c r="Z993" s="5"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="7"/>
       <c r="B994" s="7"/>
       <c r="C994" s="7"/>
@@ -29372,7 +29394,7 @@
       <c r="Y994" s="5"/>
       <c r="Z994" s="5"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="7"/>
       <c r="B995" s="7"/>
       <c r="C995" s="7"/>
@@ -29400,7 +29422,7 @@
       <c r="Y995" s="5"/>
       <c r="Z995" s="5"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="7"/>
       <c r="B996" s="7"/>
       <c r="C996" s="7"/>
@@ -29428,7 +29450,7 @@
       <c r="Y996" s="5"/>
       <c r="Z996" s="5"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="7"/>
       <c r="B997" s="7"/>
       <c r="C997" s="7"/>
@@ -29456,7 +29478,7 @@
       <c r="Y997" s="5"/>
       <c r="Z997" s="5"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="7"/>
       <c r="B998" s="7"/>
       <c r="C998" s="7"/>
@@ -29484,7 +29506,7 @@
       <c r="Y998" s="5"/>
       <c r="Z998" s="5"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="7"/>
       <c r="B999" s="7"/>
       <c r="C999" s="7"/>
@@ -29512,7 +29534,7 @@
       <c r="Y999" s="5"/>
       <c r="Z999" s="5"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="7"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="7"/>
@@ -29541,9 +29563,7 @@
       <c r="Z1000" s="5"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>